--- a/resultados/pretratamiento-tablas/pretrat-italia-elo-facil.xlsx
+++ b/resultados/pretratamiento-tablas/pretrat-italia-elo-facil.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="742">
   <si>
     <t>Pretrat</t>
   </si>
@@ -82,6 +82,2175 @@
   </si>
   <si>
     <t>promoccup_ant_5</t>
+  </si>
+  <si>
+    <t>48.857 (140)</t>
+  </si>
+  <si>
+    <t>46.579 (140)</t>
+  </si>
+  <si>
+    <t>44.121 (140)</t>
+  </si>
+  <si>
+    <t>42.007 (140)</t>
+  </si>
+  <si>
+    <t>40.593 (140)</t>
+  </si>
+  <si>
+    <t>11.3 (140)</t>
+  </si>
+  <si>
+    <t>12.35 (140)</t>
+  </si>
+  <si>
+    <t>12.614 (140)</t>
+  </si>
+  <si>
+    <t>13.079 (140)</t>
+  </si>
+  <si>
+    <t>13.429 (140)</t>
+  </si>
+  <si>
+    <t>0.585 (140)</t>
+  </si>
+  <si>
+    <t>0.587 (140)</t>
+  </si>
+  <si>
+    <t>0.6 (140)</t>
+  </si>
+  <si>
+    <t>0.614 (140)</t>
+  </si>
+  <si>
+    <t>0.627 (140)</t>
+  </si>
+  <si>
+    <t>51.831 (136)</t>
+  </si>
+  <si>
+    <t>48.882 (136)</t>
+  </si>
+  <si>
+    <t>45.478 (136)</t>
+  </si>
+  <si>
+    <t>44.654 (136)</t>
+  </si>
+  <si>
+    <t>43.265 (136)</t>
+  </si>
+  <si>
+    <t>10.118 (136)</t>
+  </si>
+  <si>
+    <t>11.404 (136)</t>
+  </si>
+  <si>
+    <t>12.074 (136)</t>
+  </si>
+  <si>
+    <t>12.103 (136)</t>
+  </si>
+  <si>
+    <t>12.426 (136)</t>
+  </si>
+  <si>
+    <t>0.587 (136)</t>
+  </si>
+  <si>
+    <t>0.597 (136)</t>
+  </si>
+  <si>
+    <t>0.594 (136)</t>
+  </si>
+  <si>
+    <t>0.606 (136)</t>
+  </si>
+  <si>
+    <t>0.613 (136)</t>
+  </si>
+  <si>
+    <t>56.182 (22)</t>
+  </si>
+  <si>
+    <t>52.636 (22)</t>
+  </si>
+  <si>
+    <t>49.818 (22)</t>
+  </si>
+  <si>
+    <t>53.5 (22)</t>
+  </si>
+  <si>
+    <t>53.864 (22)</t>
+  </si>
+  <si>
+    <t>8.773 (22)</t>
+  </si>
+  <si>
+    <t>10.318 (22)</t>
+  </si>
+  <si>
+    <t>10.864 (22)</t>
+  </si>
+  <si>
+    <t>9.955 (22)</t>
+  </si>
+  <si>
+    <t>9.5 (22)</t>
+  </si>
+  <si>
+    <t>0.605 (22)</t>
+  </si>
+  <si>
+    <t>0.618 (22)</t>
+  </si>
+  <si>
+    <t>0.625 (22)</t>
+  </si>
+  <si>
+    <t>0.656 (22)</t>
+  </si>
+  <si>
+    <t>0.67 (22)</t>
+  </si>
+  <si>
+    <t>47.763 (114)</t>
+  </si>
+  <si>
+    <t>45.789 (114)</t>
+  </si>
+  <si>
+    <t>43.272 (114)</t>
+  </si>
+  <si>
+    <t>41.675 (114)</t>
+  </si>
+  <si>
+    <t>40.307 (114)</t>
+  </si>
+  <si>
+    <t>11.833 (114)</t>
+  </si>
+  <si>
+    <t>12.64 (114)</t>
+  </si>
+  <si>
+    <t>12.877 (114)</t>
+  </si>
+  <si>
+    <t>13.237 (114)</t>
+  </si>
+  <si>
+    <t>13.561 (114)</t>
+  </si>
+  <si>
+    <t>0.59 (114)</t>
+  </si>
+  <si>
+    <t>0.585 (114)</t>
+  </si>
+  <si>
+    <t>0.599 (114)</t>
+  </si>
+  <si>
+    <t>0.611 (114)</t>
+  </si>
+  <si>
+    <t>0.63 (114)</t>
+  </si>
+  <si>
+    <t>52.161 (143)</t>
+  </si>
+  <si>
+    <t>48.846 (143)</t>
+  </si>
+  <si>
+    <t>45.476 (143)</t>
+  </si>
+  <si>
+    <t>44.112 (143)</t>
+  </si>
+  <si>
+    <t>42.587 (143)</t>
+  </si>
+  <si>
+    <t>9.951 (143)</t>
+  </si>
+  <si>
+    <t>11.448 (143)</t>
+  </si>
+  <si>
+    <t>12.126 (143)</t>
+  </si>
+  <si>
+    <t>12.329 (143)</t>
+  </si>
+  <si>
+    <t>12.748 (143)</t>
+  </si>
+  <si>
+    <t>0.577 (143)</t>
+  </si>
+  <si>
+    <t>0.598 (143)</t>
+  </si>
+  <si>
+    <t>0.597 (143)</t>
+  </si>
+  <si>
+    <t>0.612 (143)</t>
+  </si>
+  <si>
+    <t>0.617 (143)</t>
+  </si>
+  <si>
+    <t>54.171 (41)</t>
+  </si>
+  <si>
+    <t>51.756 (41)</t>
+  </si>
+  <si>
+    <t>49.317 (41)</t>
+  </si>
+  <si>
+    <t>50.537 (41)</t>
+  </si>
+  <si>
+    <t>50.415 (41)</t>
+  </si>
+  <si>
+    <t>9.244 (41)</t>
+  </si>
+  <si>
+    <t>10.463 (41)</t>
+  </si>
+  <si>
+    <t>10.854 (41)</t>
+  </si>
+  <si>
+    <t>10.341 (41)</t>
+  </si>
+  <si>
+    <t>10.0 (41)</t>
+  </si>
+  <si>
+    <t>0.613 (41)</t>
+  </si>
+  <si>
+    <t>0.603 (41)</t>
+  </si>
+  <si>
+    <t>0.607 (41)</t>
+  </si>
+  <si>
+    <t>0.624 (41)</t>
+  </si>
+  <si>
+    <t>0.635 (41)</t>
+  </si>
+  <si>
+    <t>47.579 (95)</t>
+  </si>
+  <si>
+    <t>45.074 (95)</t>
+  </si>
+  <si>
+    <t>41.747 (95)</t>
+  </si>
+  <si>
+    <t>40.358 (95)</t>
+  </si>
+  <si>
+    <t>39.274 (95)</t>
+  </si>
+  <si>
+    <t>11.874 (95)</t>
+  </si>
+  <si>
+    <t>12.884 (95)</t>
+  </si>
+  <si>
+    <t>13.453 (95)</t>
+  </si>
+  <si>
+    <t>13.821 (95)</t>
+  </si>
+  <si>
+    <t>14.0 (95)</t>
+  </si>
+  <si>
+    <t>0.595 (95)</t>
+  </si>
+  <si>
+    <t>0.586 (95)</t>
+  </si>
+  <si>
+    <t>0.607 (95)</t>
+  </si>
+  <si>
+    <t>0.627 (95)</t>
+  </si>
+  <si>
+    <t>51.657 (140)</t>
+  </si>
+  <si>
+    <t>48.264 (140)</t>
+  </si>
+  <si>
+    <t>46.229 (140)</t>
+  </si>
+  <si>
+    <t>44.293 (140)</t>
+  </si>
+  <si>
+    <t>43.064 (140)</t>
+  </si>
+  <si>
+    <t>10.121 (140)</t>
+  </si>
+  <si>
+    <t>11.7 (140)</t>
+  </si>
+  <si>
+    <t>11.864 (140)</t>
+  </si>
+  <si>
+    <t>12.114 (140)</t>
+  </si>
+  <si>
+    <t>12.486 (140)</t>
+  </si>
+  <si>
+    <t>0.574 (140)</t>
+  </si>
+  <si>
+    <t>0.591 (140)</t>
+  </si>
+  <si>
+    <t>0.597 (140)</t>
+  </si>
+  <si>
+    <t>0.617 (140)</t>
+  </si>
+  <si>
+    <t>0.623 (140)</t>
+  </si>
+  <si>
+    <t>52.441 (59)</t>
+  </si>
+  <si>
+    <t>51.153 (59)</t>
+  </si>
+  <si>
+    <t>47.305 (59)</t>
+  </si>
+  <si>
+    <t>48.102 (59)</t>
+  </si>
+  <si>
+    <t>46.712 (59)</t>
+  </si>
+  <si>
+    <t>9.949 (59)</t>
+  </si>
+  <si>
+    <t>10.441 (59)</t>
+  </si>
+  <si>
+    <t>11.441 (59)</t>
+  </si>
+  <si>
+    <t>11.153 (59)</t>
+  </si>
+  <si>
+    <t>11.39 (59)</t>
+  </si>
+  <si>
+    <t>0.598 (59)</t>
+  </si>
+  <si>
+    <t>0.609 (59)</t>
+  </si>
+  <si>
+    <t>0.612 (59)</t>
+  </si>
+  <si>
+    <t>0.611 (59)</t>
+  </si>
+  <si>
+    <t>0.618 (59)</t>
+  </si>
+  <si>
+    <t>69.75 (4)</t>
+  </si>
+  <si>
+    <t>67.5 (4)</t>
+  </si>
+  <si>
+    <t>57.25 (4)</t>
+  </si>
+  <si>
+    <t>64.5 (4)</t>
+  </si>
+  <si>
+    <t>59.0 (4)</t>
+  </si>
+  <si>
+    <t>4.75 (4)</t>
+  </si>
+  <si>
+    <t>7.25 (4)</t>
+  </si>
+  <si>
+    <t>8.25 (4)</t>
+  </si>
+  <si>
+    <t>0.701 (4)</t>
+  </si>
+  <si>
+    <t>0.639 (4)</t>
+  </si>
+  <si>
+    <t>0.589 (4)</t>
+  </si>
+  <si>
+    <t>0.678 (4)</t>
+  </si>
+  <si>
+    <t>0.694 (4)</t>
+  </si>
+  <si>
+    <t>47.865 (74)</t>
+  </si>
+  <si>
+    <t>44.392 (74)</t>
+  </si>
+  <si>
+    <t>40.892 (74)</t>
+  </si>
+  <si>
+    <t>40.054 (74)</t>
+  </si>
+  <si>
+    <t>40.243 (74)</t>
+  </si>
+  <si>
+    <t>12.041 (74)</t>
+  </si>
+  <si>
+    <t>13.257 (74)</t>
+  </si>
+  <si>
+    <t>13.811 (74)</t>
+  </si>
+  <si>
+    <t>14.176 (74)</t>
+  </si>
+  <si>
+    <t>13.595 (74)</t>
+  </si>
+  <si>
+    <t>0.599 (74)</t>
+  </si>
+  <si>
+    <t>0.584 (74)</t>
+  </si>
+  <si>
+    <t>0.603 (74)</t>
+  </si>
+  <si>
+    <t>0.631 (74)</t>
+  </si>
+  <si>
+    <t>50.496 (141)</t>
+  </si>
+  <si>
+    <t>47.596 (141)</t>
+  </si>
+  <si>
+    <t>45.539 (141)</t>
+  </si>
+  <si>
+    <t>43.496 (141)</t>
+  </si>
+  <si>
+    <t>42.184 (141)</t>
+  </si>
+  <si>
+    <t>10.376 (141)</t>
+  </si>
+  <si>
+    <t>11.865 (141)</t>
+  </si>
+  <si>
+    <t>12.035 (141)</t>
+  </si>
+  <si>
+    <t>12.39 (141)</t>
+  </si>
+  <si>
+    <t>12.851 (141)</t>
+  </si>
+  <si>
+    <t>0.575 (141)</t>
+  </si>
+  <si>
+    <t>0.593 (141)</t>
+  </si>
+  <si>
+    <t>0.595 (141)</t>
+  </si>
+  <si>
+    <t>0.619 (141)</t>
+  </si>
+  <si>
+    <t>0.624 (141)</t>
+  </si>
+  <si>
+    <t>53.48 (75)</t>
+  </si>
+  <si>
+    <t>52.067 (75)</t>
+  </si>
+  <si>
+    <t>48.24 (75)</t>
+  </si>
+  <si>
+    <t>48.373 (75)</t>
+  </si>
+  <si>
+    <t>45.72 (75)</t>
+  </si>
+  <si>
+    <t>9.613 (75)</t>
+  </si>
+  <si>
+    <t>10.173 (75)</t>
+  </si>
+  <si>
+    <t>11.213 (75)</t>
+  </si>
+  <si>
+    <t>10.84 (75)</t>
+  </si>
+  <si>
+    <t>11.733 (75)</t>
+  </si>
+  <si>
+    <t>0.594 (75)</t>
+  </si>
+  <si>
+    <t>0.601 (75)</t>
+  </si>
+  <si>
+    <t>0.61 (75)</t>
+  </si>
+  <si>
+    <t>0.612 (75)</t>
+  </si>
+  <si>
+    <t>0.617 (75)</t>
+  </si>
+  <si>
+    <t>56.5 (8)</t>
+  </si>
+  <si>
+    <t>53.25 (8)</t>
+  </si>
+  <si>
+    <t>49.125 (8)</t>
+  </si>
+  <si>
+    <t>50.75 (8)</t>
+  </si>
+  <si>
+    <t>49.625 (8)</t>
+  </si>
+  <si>
+    <t>9.5 (8)</t>
+  </si>
+  <si>
+    <t>11.25 (8)</t>
+  </si>
+  <si>
+    <t>10.875 (8)</t>
+  </si>
+  <si>
+    <t>10.125 (8)</t>
+  </si>
+  <si>
+    <t>0.619 (8)</t>
+  </si>
+  <si>
+    <t>0.625 (8)</t>
+  </si>
+  <si>
+    <t>0.572 (8)</t>
+  </si>
+  <si>
+    <t>0.631 (8)</t>
+  </si>
+  <si>
+    <t>48.67 (106)</t>
+  </si>
+  <si>
+    <t>45.698 (106)</t>
+  </si>
+  <si>
+    <t>43.877 (106)</t>
+  </si>
+  <si>
+    <t>41.17 (106)</t>
+  </si>
+  <si>
+    <t>39.651 (106)</t>
+  </si>
+  <si>
+    <t>11.349 (106)</t>
+  </si>
+  <si>
+    <t>12.755 (106)</t>
+  </si>
+  <si>
+    <t>12.764 (106)</t>
+  </si>
+  <si>
+    <t>13.406 (106)</t>
+  </si>
+  <si>
+    <t>13.774 (106)</t>
+  </si>
+  <si>
+    <t>0.584 (106)</t>
+  </si>
+  <si>
+    <t>0.594 (106)</t>
+  </si>
+  <si>
+    <t>0.601 (106)</t>
+  </si>
+  <si>
+    <t>0.615 (106)</t>
+  </si>
+  <si>
+    <t>0.626 (106)</t>
+  </si>
+  <si>
+    <t>50.673 (147)</t>
+  </si>
+  <si>
+    <t>48.565 (147)</t>
+  </si>
+  <si>
+    <t>44.973 (147)</t>
+  </si>
+  <si>
+    <t>44.333 (147)</t>
+  </si>
+  <si>
+    <t>43.041 (147)</t>
+  </si>
+  <si>
+    <t>10.626 (147)</t>
+  </si>
+  <si>
+    <t>11.578 (147)</t>
+  </si>
+  <si>
+    <t>12.184 (147)</t>
+  </si>
+  <si>
+    <t>12.218 (147)</t>
+  </si>
+  <si>
+    <t>12.531 (147)</t>
+  </si>
+  <si>
+    <t>0.583 (147)</t>
+  </si>
+  <si>
+    <t>0.581 (147)</t>
+  </si>
+  <si>
+    <t>0.591 (147)</t>
+  </si>
+  <si>
+    <t>0.605 (147)</t>
+  </si>
+  <si>
+    <t>0.612 (147)</t>
+  </si>
+  <si>
+    <t>56.571 (42)</t>
+  </si>
+  <si>
+    <t>52.524 (42)</t>
+  </si>
+  <si>
+    <t>49.333 (42)</t>
+  </si>
+  <si>
+    <t>50.833 (42)</t>
+  </si>
+  <si>
+    <t>50.31 (42)</t>
+  </si>
+  <si>
+    <t>8.262 (42)</t>
+  </si>
+  <si>
+    <t>9.976 (42)</t>
+  </si>
+  <si>
+    <t>10.929 (42)</t>
+  </si>
+  <si>
+    <t>10.357 (42)</t>
+  </si>
+  <si>
+    <t>10.238 (42)</t>
+  </si>
+  <si>
+    <t>0.607 (42)</t>
+  </si>
+  <si>
+    <t>0.633 (42)</t>
+  </si>
+  <si>
+    <t>0.626 (42)</t>
+  </si>
+  <si>
+    <t>0.641 (42)</t>
+  </si>
+  <si>
+    <t>0.663 (42)</t>
+  </si>
+  <si>
+    <t>47.0 (3)</t>
+  </si>
+  <si>
+    <t>46.0 (3)</t>
+  </si>
+  <si>
+    <t>41.333 (3)</t>
+  </si>
+  <si>
+    <t>38.333 (3)</t>
+  </si>
+  <si>
+    <t>36.333 (3)</t>
+  </si>
+  <si>
+    <t>13.0 (3)</t>
+  </si>
+  <si>
+    <t>11.333 (3)</t>
+  </si>
+  <si>
+    <t>14.667 (3)</t>
+  </si>
+  <si>
+    <t>15.667 (3)</t>
+  </si>
+  <si>
+    <t>0.615 (3)</t>
+  </si>
+  <si>
+    <t>0.634 (3)</t>
+  </si>
+  <si>
+    <t>0.573 (3)</t>
+  </si>
+  <si>
+    <t>0.58 (3)</t>
+  </si>
+  <si>
+    <t>0.596 (3)</t>
+  </si>
+  <si>
+    <t>47.4 (80)</t>
+  </si>
+  <si>
+    <t>44.512 (80)</t>
+  </si>
+  <si>
+    <t>42.662 (80)</t>
+  </si>
+  <si>
+    <t>40.988 (80)</t>
+  </si>
+  <si>
+    <t>39.625 (80)</t>
+  </si>
+  <si>
+    <t>12.012 (80)</t>
+  </si>
+  <si>
+    <t>13.262 (80)</t>
+  </si>
+  <si>
+    <t>13.212 (80)</t>
+  </si>
+  <si>
+    <t>13.512 (80)</t>
+  </si>
+  <si>
+    <t>13.725 (80)</t>
+  </si>
+  <si>
+    <t>0.59 (80)</t>
+  </si>
+  <si>
+    <t>0.596 (80)</t>
+  </si>
+  <si>
+    <t>0.612 (80)</t>
+  </si>
+  <si>
+    <t>0.63 (80)</t>
+  </si>
+  <si>
+    <t>50.775 (142)</t>
+  </si>
+  <si>
+    <t>48.549 (142)</t>
+  </si>
+  <si>
+    <t>45.042 (142)</t>
+  </si>
+  <si>
+    <t>43.915 (142)</t>
+  </si>
+  <si>
+    <t>42.704 (142)</t>
+  </si>
+  <si>
+    <t>10.542 (142)</t>
+  </si>
+  <si>
+    <t>11.577 (142)</t>
+  </si>
+  <si>
+    <t>12.197 (142)</t>
+  </si>
+  <si>
+    <t>12.359 (142)</t>
+  </si>
+  <si>
+    <t>12.81 (142)</t>
+  </si>
+  <si>
+    <t>0.576 (142)</t>
+  </si>
+  <si>
+    <t>0.584 (142)</t>
+  </si>
+  <si>
+    <t>0.593 (142)</t>
+  </si>
+  <si>
+    <t>0.61 (142)</t>
+  </si>
+  <si>
+    <t>0.613 (142)</t>
+  </si>
+  <si>
+    <t>54.743 (70)</t>
+  </si>
+  <si>
+    <t>51.086 (70)</t>
+  </si>
+  <si>
+    <t>48.557 (70)</t>
+  </si>
+  <si>
+    <t>47.857 (70)</t>
+  </si>
+  <si>
+    <t>46.143 (70)</t>
+  </si>
+  <si>
+    <t>8.886 (70)</t>
+  </si>
+  <si>
+    <t>10.529 (70)</t>
+  </si>
+  <si>
+    <t>11.014 (70)</t>
+  </si>
+  <si>
+    <t>11.229 (70)</t>
+  </si>
+  <si>
+    <t>11.314 (70)</t>
+  </si>
+  <si>
+    <t>0.605 (70)</t>
+  </si>
+  <si>
+    <t>0.617 (70)</t>
+  </si>
+  <si>
+    <t>0.615 (70)</t>
+  </si>
+  <si>
+    <t>0.626 (70)</t>
+  </si>
+  <si>
+    <t>0.642 (70)</t>
+  </si>
+  <si>
+    <t>48.5 (6)</t>
+  </si>
+  <si>
+    <t>49.333 (6)</t>
+  </si>
+  <si>
+    <t>41.667 (6)</t>
+  </si>
+  <si>
+    <t>44.333 (6)</t>
+  </si>
+  <si>
+    <t>48.0 (6)</t>
+  </si>
+  <si>
+    <t>11.833 (6)</t>
+  </si>
+  <si>
+    <t>10.833 (6)</t>
+  </si>
+  <si>
+    <t>14.5 (6)</t>
+  </si>
+  <si>
+    <t>12.333 (6)</t>
+  </si>
+  <si>
+    <t>11.667 (6)</t>
+  </si>
+  <si>
+    <t>0.606 (6)</t>
+  </si>
+  <si>
+    <t>0.607 (6)</t>
+  </si>
+  <si>
+    <t>0.602 (6)</t>
+  </si>
+  <si>
+    <t>0.581 (6)</t>
+  </si>
+  <si>
+    <t>0.592 (6)</t>
+  </si>
+  <si>
+    <t>46.381 (63)</t>
+  </si>
+  <si>
+    <t>43.079 (63)</t>
+  </si>
+  <si>
+    <t>39.714 (63)</t>
+  </si>
+  <si>
+    <t>38.921 (63)</t>
+  </si>
+  <si>
+    <t>37.905 (63)</t>
+  </si>
+  <si>
+    <t>12.429 (63)</t>
+  </si>
+  <si>
+    <t>13.794 (63)</t>
+  </si>
+  <si>
+    <t>14.333 (63)</t>
+  </si>
+  <si>
+    <t>14.444 (63)</t>
+  </si>
+  <si>
+    <t>14.508 (63)</t>
+  </si>
+  <si>
+    <t>0.588 (63)</t>
+  </si>
+  <si>
+    <t>0.589 (63)</t>
+  </si>
+  <si>
+    <t>0.591 (63)</t>
+  </si>
+  <si>
+    <t>0.605 (63)</t>
+  </si>
+  <si>
+    <t>0.624 (63)</t>
+  </si>
+  <si>
+    <t>50.288 (125)</t>
+  </si>
+  <si>
+    <t>47.856 (125)</t>
+  </si>
+  <si>
+    <t>45.864 (125)</t>
+  </si>
+  <si>
+    <t>43.808 (125)</t>
+  </si>
+  <si>
+    <t>42.944 (125)</t>
+  </si>
+  <si>
+    <t>10.664 (125)</t>
+  </si>
+  <si>
+    <t>11.912 (125)</t>
+  </si>
+  <si>
+    <t>11.976 (125)</t>
+  </si>
+  <si>
+    <t>12.28 (125)</t>
+  </si>
+  <si>
+    <t>12.608 (125)</t>
+  </si>
+  <si>
+    <t>0.575 (125)</t>
+  </si>
+  <si>
+    <t>0.578 (125)</t>
+  </si>
+  <si>
+    <t>0.59 (125)</t>
+  </si>
+  <si>
+    <t>0.61 (125)</t>
+  </si>
+  <si>
+    <t>0.617 (125)</t>
+  </si>
+  <si>
+    <t>53.832 (95)</t>
+  </si>
+  <si>
+    <t>51.063 (95)</t>
+  </si>
+  <si>
+    <t>47.811 (95)</t>
+  </si>
+  <si>
+    <t>47.326 (95)</t>
+  </si>
+  <si>
+    <t>45.326 (95)</t>
+  </si>
+  <si>
+    <t>9.358 (95)</t>
+  </si>
+  <si>
+    <t>10.347 (95)</t>
+  </si>
+  <si>
+    <t>11.074 (95)</t>
+  </si>
+  <si>
+    <t>11.253 (95)</t>
+  </si>
+  <si>
+    <t>11.642 (95)</t>
+  </si>
+  <si>
+    <t>0.593 (95)</t>
+  </si>
+  <si>
+    <t>0.613 (95)</t>
+  </si>
+  <si>
+    <t>0.615 (95)</t>
+  </si>
+  <si>
+    <t>0.624 (95)</t>
+  </si>
+  <si>
+    <t>0.634 (95)</t>
+  </si>
+  <si>
+    <t>53.533 (15)</t>
+  </si>
+  <si>
+    <t>52.0 (15)</t>
+  </si>
+  <si>
+    <t>45.4 (15)</t>
+  </si>
+  <si>
+    <t>47.133 (15)</t>
+  </si>
+  <si>
+    <t>46.0 (15)</t>
+  </si>
+  <si>
+    <t>9.733 (15)</t>
+  </si>
+  <si>
+    <t>11.067 (15)</t>
+  </si>
+  <si>
+    <t>13.0 (15)</t>
+  </si>
+  <si>
+    <t>12.133 (15)</t>
+  </si>
+  <si>
+    <t>12.2 (15)</t>
+  </si>
+  <si>
+    <t>0.644 (15)</t>
+  </si>
+  <si>
+    <t>0.621 (15)</t>
+  </si>
+  <si>
+    <t>0.612 (15)</t>
+  </si>
+  <si>
+    <t>0.608 (15)</t>
+  </si>
+  <si>
+    <t>0.623 (15)</t>
+  </si>
+  <si>
+    <t>47.047 (43)</t>
+  </si>
+  <si>
+    <t>43.093 (43)</t>
+  </si>
+  <si>
+    <t>38.884 (43)</t>
+  </si>
+  <si>
+    <t>38.233 (43)</t>
+  </si>
+  <si>
+    <t>39.093 (43)</t>
+  </si>
+  <si>
+    <t>12.558 (43)</t>
+  </si>
+  <si>
+    <t>13.884 (43)</t>
+  </si>
+  <si>
+    <t>14.628 (43)</t>
+  </si>
+  <si>
+    <t>15.14 (43)</t>
+  </si>
+  <si>
+    <t>14.14 (43)</t>
+  </si>
+  <si>
+    <t>0.581 (43)</t>
+  </si>
+  <si>
+    <t>0.593 (43)</t>
+  </si>
+  <si>
+    <t>0.589 (43)</t>
+  </si>
+  <si>
+    <t>0.61 (43)</t>
+  </si>
+  <si>
+    <t>48.727 (121)</t>
+  </si>
+  <si>
+    <t>46.248 (121)</t>
+  </si>
+  <si>
+    <t>44.471 (121)</t>
+  </si>
+  <si>
+    <t>42.76 (121)</t>
+  </si>
+  <si>
+    <t>41.545 (121)</t>
+  </si>
+  <si>
+    <t>11.074 (121)</t>
+  </si>
+  <si>
+    <t>12.463 (121)</t>
+  </si>
+  <si>
+    <t>12.496 (121)</t>
+  </si>
+  <si>
+    <t>12.628 (121)</t>
+  </si>
+  <si>
+    <t>13.14 (121)</t>
+  </si>
+  <si>
+    <t>0.58 (121)</t>
+  </si>
+  <si>
+    <t>0.584 (121)</t>
+  </si>
+  <si>
+    <t>0.588 (121)</t>
+  </si>
+  <si>
+    <t>0.614 (121)</t>
+  </si>
+  <si>
+    <t>0.628 (121)</t>
+  </si>
+  <si>
+    <t>54.068 (103)</t>
+  </si>
+  <si>
+    <t>51.621 (103)</t>
+  </si>
+  <si>
+    <t>48.456 (103)</t>
+  </si>
+  <si>
+    <t>47.825 (103)</t>
+  </si>
+  <si>
+    <t>45.786 (103)</t>
+  </si>
+  <si>
+    <t>9.311 (103)</t>
+  </si>
+  <si>
+    <t>10.311 (103)</t>
+  </si>
+  <si>
+    <t>10.903 (103)</t>
+  </si>
+  <si>
+    <t>11.039 (103)</t>
+  </si>
+  <si>
+    <t>11.466 (103)</t>
+  </si>
+  <si>
+    <t>0.592 (103)</t>
+  </si>
+  <si>
+    <t>0.604 (103)</t>
+  </si>
+  <si>
+    <t>0.614 (103)</t>
+  </si>
+  <si>
+    <t>0.628 (103)</t>
+  </si>
+  <si>
+    <t>0.63 (103)</t>
+  </si>
+  <si>
+    <t>52.806 (31)</t>
+  </si>
+  <si>
+    <t>50.355 (31)</t>
+  </si>
+  <si>
+    <t>45.613 (31)</t>
+  </si>
+  <si>
+    <t>44.742 (31)</t>
+  </si>
+  <si>
+    <t>42.839 (31)</t>
+  </si>
+  <si>
+    <t>10.065 (31)</t>
+  </si>
+  <si>
+    <t>10.968 (31)</t>
+  </si>
+  <si>
+    <t>12.355 (31)</t>
+  </si>
+  <si>
+    <t>12.258 (31)</t>
+  </si>
+  <si>
+    <t>12.903 (31)</t>
+  </si>
+  <si>
+    <t>0.605 (31)</t>
+  </si>
+  <si>
+    <t>0.618 (31)</t>
+  </si>
+  <si>
+    <t>0.602 (31)</t>
+  </si>
+  <si>
+    <t>0.595 (31)</t>
+  </si>
+  <si>
+    <t>0.611 (31)</t>
+  </si>
+  <si>
+    <t>48.425 (73)</t>
+  </si>
+  <si>
+    <t>44.795 (73)</t>
+  </si>
+  <si>
+    <t>42.822 (73)</t>
+  </si>
+  <si>
+    <t>40.233 (73)</t>
+  </si>
+  <si>
+    <t>38.918 (73)</t>
+  </si>
+  <si>
+    <t>11.452 (73)</t>
+  </si>
+  <si>
+    <t>12.904 (73)</t>
+  </si>
+  <si>
+    <t>13.205 (73)</t>
+  </si>
+  <si>
+    <t>13.781 (73)</t>
+  </si>
+  <si>
+    <t>14.068 (73)</t>
+  </si>
+  <si>
+    <t>0.57 (73)</t>
+  </si>
+  <si>
+    <t>0.587 (73)</t>
+  </si>
+  <si>
+    <t>0.594 (73)</t>
+  </si>
+  <si>
+    <t>0.599 (73)</t>
+  </si>
+  <si>
+    <t>0.615 (73)</t>
+  </si>
+  <si>
+    <t>49.879 (157)</t>
+  </si>
+  <si>
+    <t>48.79 (157)</t>
+  </si>
+  <si>
+    <t>44.49 (157)</t>
+  </si>
+  <si>
+    <t>43.656 (157)</t>
+  </si>
+  <si>
+    <t>41.548 (157)</t>
+  </si>
+  <si>
+    <t>10.943 (157)</t>
+  </si>
+  <si>
+    <t>11.682 (157)</t>
+  </si>
+  <si>
+    <t>12.306 (157)</t>
+  </si>
+  <si>
+    <t>12.414 (157)</t>
+  </si>
+  <si>
+    <t>13.057 (157)</t>
+  </si>
+  <si>
+    <t>0.589 (157)</t>
+  </si>
+  <si>
+    <t>0.587 (157)</t>
+  </si>
+  <si>
+    <t>0.597 (157)</t>
+  </si>
+  <si>
+    <t>0.62 (157)</t>
+  </si>
+  <si>
+    <t>0.623 (157)</t>
+  </si>
+  <si>
+    <t>56.098 (61)</t>
+  </si>
+  <si>
+    <t>50.082 (61)</t>
+  </si>
+  <si>
+    <t>50.967 (61)</t>
+  </si>
+  <si>
+    <t>50.557 (61)</t>
+  </si>
+  <si>
+    <t>51.738 (61)</t>
+  </si>
+  <si>
+    <t>8.525 (61)</t>
+  </si>
+  <si>
+    <t>10.869 (61)</t>
+  </si>
+  <si>
+    <t>10.475 (61)</t>
+  </si>
+  <si>
+    <t>10.426 (61)</t>
+  </si>
+  <si>
+    <t>9.705 (61)</t>
+  </si>
+  <si>
+    <t>0.607 (61)</t>
+  </si>
+  <si>
+    <t>0.618 (61)</t>
+  </si>
+  <si>
+    <t>0.611 (61)</t>
+  </si>
+  <si>
+    <t>0.614 (61)</t>
+  </si>
+  <si>
+    <t>0.639 (61)</t>
+  </si>
+  <si>
+    <t>48.143 (7)</t>
+  </si>
+  <si>
+    <t>48.857 (7)</t>
+  </si>
+  <si>
+    <t>34.0 (7)</t>
+  </si>
+  <si>
+    <t>36.571 (7)</t>
+  </si>
+  <si>
+    <t>33.143 (7)</t>
+  </si>
+  <si>
+    <t>11.0 (7)</t>
+  </si>
+  <si>
+    <t>9.714 (7)</t>
+  </si>
+  <si>
+    <t>16.0 (7)</t>
+  </si>
+  <si>
+    <t>15.0 (7)</t>
+  </si>
+  <si>
+    <t>15.714 (7)</t>
+  </si>
+  <si>
+    <t>0.562 (7)</t>
+  </si>
+  <si>
+    <t>0.615 (7)</t>
+  </si>
+  <si>
+    <t>0.595 (7)</t>
+  </si>
+  <si>
+    <t>0.601 (7)</t>
+  </si>
+  <si>
+    <t>0.62 (7)</t>
+  </si>
+  <si>
+    <t>45.082 (49)</t>
+  </si>
+  <si>
+    <t>42.061 (49)</t>
+  </si>
+  <si>
+    <t>40.041 (49)</t>
+  </si>
+  <si>
+    <t>38.327 (49)</t>
+  </si>
+  <si>
+    <t>36.694 (49)</t>
+  </si>
+  <si>
+    <t>12.837 (49)</t>
+  </si>
+  <si>
+    <t>14.122 (49)</t>
+  </si>
+  <si>
+    <t>14.0 (49)</t>
+  </si>
+  <si>
+    <t>14.327 (49)</t>
+  </si>
+  <si>
+    <t>14.633 (49)</t>
+  </si>
+  <si>
+    <t>0.57 (49)</t>
+  </si>
+  <si>
+    <t>0.576 (49)</t>
+  </si>
+  <si>
+    <t>0.582 (49)</t>
+  </si>
+  <si>
+    <t>0.59 (49)</t>
+  </si>
+  <si>
+    <t>0.626 (49)</t>
+  </si>
+  <si>
+    <t>49.547 (137)</t>
+  </si>
+  <si>
+    <t>48.139 (137)</t>
+  </si>
+  <si>
+    <t>43.445 (137)</t>
+  </si>
+  <si>
+    <t>42.839 (137)</t>
+  </si>
+  <si>
+    <t>40.825 (137)</t>
+  </si>
+  <si>
+    <t>11.109 (137)</t>
+  </si>
+  <si>
+    <t>11.781 (137)</t>
+  </si>
+  <si>
+    <t>12.869 (137)</t>
+  </si>
+  <si>
+    <t>12.788 (137)</t>
+  </si>
+  <si>
+    <t>13.584 (137)</t>
+  </si>
+  <si>
+    <t>0.583 (137)</t>
+  </si>
+  <si>
+    <t>0.588 (137)</t>
+  </si>
+  <si>
+    <t>0.601 (137)</t>
+  </si>
+  <si>
+    <t>0.618 (137)</t>
+  </si>
+  <si>
+    <t>0.613 (137)</t>
+  </si>
+  <si>
+    <t>55.434 (99)</t>
+  </si>
+  <si>
+    <t>50.697 (99)</t>
+  </si>
+  <si>
+    <t>50.404 (99)</t>
+  </si>
+  <si>
+    <t>48.444 (99)</t>
+  </si>
+  <si>
+    <t>48.535 (99)</t>
+  </si>
+  <si>
+    <t>8.626 (99)</t>
+  </si>
+  <si>
+    <t>10.768 (99)</t>
+  </si>
+  <si>
+    <t>10.263 (99)</t>
+  </si>
+  <si>
+    <t>10.99 (99)</t>
+  </si>
+  <si>
+    <t>10.495 (99)</t>
+  </si>
+  <si>
+    <t>0.602 (99)</t>
+  </si>
+  <si>
+    <t>0.609 (99)</t>
+  </si>
+  <si>
+    <t>0.605 (99)</t>
+  </si>
+  <si>
+    <t>0.623 (99)</t>
+  </si>
+  <si>
+    <t>0.642 (99)</t>
+  </si>
+  <si>
+    <t>49.667 (12)</t>
+  </si>
+  <si>
+    <t>50.917 (12)</t>
+  </si>
+  <si>
+    <t>44.417 (12)</t>
+  </si>
+  <si>
+    <t>46.667 (12)</t>
+  </si>
+  <si>
+    <t>43.25 (12)</t>
+  </si>
+  <si>
+    <t>11.25 (12)</t>
+  </si>
+  <si>
+    <t>10.417 (12)</t>
+  </si>
+  <si>
+    <t>13.417 (12)</t>
+  </si>
+  <si>
+    <t>11.5 (12)</t>
+  </si>
+  <si>
+    <t>12.417 (12)</t>
+  </si>
+  <si>
+    <t>0.593 (12)</t>
+  </si>
+  <si>
+    <t>0.619 (12)</t>
+  </si>
+  <si>
+    <t>0.596 (12)</t>
+  </si>
+  <si>
+    <t>0.581 (12)</t>
+  </si>
+  <si>
+    <t>0.598 (12)</t>
+  </si>
+  <si>
+    <t>44.0 (1)</t>
+  </si>
+  <si>
+    <t>41.0 (1)</t>
+  </si>
+  <si>
+    <t>21.0 (1)</t>
+  </si>
+  <si>
+    <t>28.0 (1)</t>
+  </si>
+  <si>
+    <t>37.0 (1)</t>
+  </si>
+  <si>
+    <t>11.0 (1)</t>
+  </si>
+  <si>
+    <t>10.0 (1)</t>
+  </si>
+  <si>
+    <t>16.0 (1)</t>
+  </si>
+  <si>
+    <t>13.0 (1)</t>
+  </si>
+  <si>
+    <t>0.463 (1)</t>
+  </si>
+  <si>
+    <t>0.479 (1)</t>
+  </si>
+  <si>
+    <t>0.599 (1)</t>
+  </si>
+  <si>
+    <t>0.503 (1)</t>
+  </si>
+  <si>
+    <t>0.522 (1)</t>
+  </si>
+  <si>
+    <t>42.091 (33)</t>
+  </si>
+  <si>
+    <t>39.091 (33)</t>
+  </si>
+  <si>
+    <t>36.515 (33)</t>
+  </si>
+  <si>
+    <t>35.667 (33)</t>
+  </si>
+  <si>
+    <t>34.333 (33)</t>
+  </si>
+  <si>
+    <t>13.818 (33)</t>
+  </si>
+  <si>
+    <t>15.273 (33)</t>
+  </si>
+  <si>
+    <t>15.394 (33)</t>
+  </si>
+  <si>
+    <t>15.424 (33)</t>
+  </si>
+  <si>
+    <t>15.606 (33)</t>
+  </si>
+  <si>
+    <t>0.556 (33)</t>
+  </si>
+  <si>
+    <t>0.56 (33)</t>
+  </si>
+  <si>
+    <t>0.564 (33)</t>
+  </si>
+  <si>
+    <t>0.582 (33)</t>
+  </si>
+  <si>
+    <t>0.61 (33)</t>
+  </si>
+  <si>
+    <t>49.148 (115)</t>
+  </si>
+  <si>
+    <t>47.13 (115)</t>
+  </si>
+  <si>
+    <t>42.557 (115)</t>
+  </si>
+  <si>
+    <t>41.765 (115)</t>
+  </si>
+  <si>
+    <t>40.304 (115)</t>
+  </si>
+  <si>
+    <t>11.304 (115)</t>
+  </si>
+  <si>
+    <t>12.183 (115)</t>
+  </si>
+  <si>
+    <t>13.183 (115)</t>
+  </si>
+  <si>
+    <t>13.174 (115)</t>
+  </si>
+  <si>
+    <t>13.704 (115)</t>
+  </si>
+  <si>
+    <t>0.581 (115)</t>
+  </si>
+  <si>
+    <t>0.587 (115)</t>
+  </si>
+  <si>
+    <t>0.598 (115)</t>
+  </si>
+  <si>
+    <t>0.609 (115)</t>
+  </si>
+  <si>
+    <t>0.618 (115)</t>
+  </si>
+  <si>
+    <t>54.136 (118)</t>
+  </si>
+  <si>
+    <t>50.754 (118)</t>
+  </si>
+  <si>
+    <t>49.814 (118)</t>
+  </si>
+  <si>
+    <t>47.754 (118)</t>
+  </si>
+  <si>
+    <t>46.856 (118)</t>
+  </si>
+  <si>
+    <t>9.144 (118)</t>
+  </si>
+  <si>
+    <t>10.695 (118)</t>
+  </si>
+  <si>
+    <t>10.407 (118)</t>
+  </si>
+  <si>
+    <t>11.025 (118)</t>
+  </si>
+  <si>
+    <t>11.076 (118)</t>
+  </si>
+  <si>
+    <t>0.598 (118)</t>
+  </si>
+  <si>
+    <t>0.607 (118)</t>
+  </si>
+  <si>
+    <t>0.609 (118)</t>
+  </si>
+  <si>
+    <t>0.628 (118)</t>
+  </si>
+  <si>
+    <t>0.639 (118)</t>
+  </si>
+  <si>
+    <t>54.345 (29)</t>
+  </si>
+  <si>
+    <t>51.586 (29)</t>
+  </si>
+  <si>
+    <t>48.345 (29)</t>
+  </si>
+  <si>
+    <t>49.207 (29)</t>
+  </si>
+  <si>
+    <t>47.517 (29)</t>
+  </si>
+  <si>
+    <t>9.448 (29)</t>
+  </si>
+  <si>
+    <t>10.621 (29)</t>
+  </si>
+  <si>
+    <t>11.586 (29)</t>
+  </si>
+  <si>
+    <t>11.0 (29)</t>
+  </si>
+  <si>
+    <t>11.241 (29)</t>
+  </si>
+  <si>
+    <t>0.603 (29)</t>
+  </si>
+  <si>
+    <t>0.597 (29)</t>
+  </si>
+  <si>
+    <t>0.618 (29)</t>
+  </si>
+  <si>
+    <t>0.609 (29)</t>
+  </si>
+  <si>
+    <t>40.0 (3)</t>
+  </si>
+  <si>
+    <t>44.0 (3)</t>
+  </si>
+  <si>
+    <t>26.333 (3)</t>
+  </si>
+  <si>
+    <t>29.667 (3)</t>
+  </si>
+  <si>
+    <t>25.667 (3)</t>
+  </si>
+  <si>
+    <t>14.0 (3)</t>
+  </si>
+  <si>
+    <t>10.667 (3)</t>
+  </si>
+  <si>
+    <t>19.667 (3)</t>
+  </si>
+  <si>
+    <t>17.333 (3)</t>
+  </si>
+  <si>
+    <t>18.333 (3)</t>
+  </si>
+  <si>
+    <t>0.608 (3)</t>
+  </si>
+  <si>
+    <t>0.67 (3)</t>
+  </si>
+  <si>
+    <t>0.652 (3)</t>
+  </si>
+  <si>
+    <t>0.507 (3)</t>
+  </si>
+  <si>
+    <t>0.59 (3)</t>
+  </si>
+  <si>
+    <t>39.118 (17)</t>
+  </si>
+  <si>
+    <t>36.118 (17)</t>
+  </si>
+  <si>
+    <t>32.176 (17)</t>
+  </si>
+  <si>
+    <t>34.706 (17)</t>
+  </si>
+  <si>
+    <t>34.882 (17)</t>
+  </si>
+  <si>
+    <t>15.529 (17)</t>
+  </si>
+  <si>
+    <t>16.176 (17)</t>
+  </si>
+  <si>
+    <t>16.647 (17)</t>
+  </si>
+  <si>
+    <t>16.294 (17)</t>
+  </si>
+  <si>
+    <t>15.353 (17)</t>
+  </si>
+  <si>
+    <t>0.535 (17)</t>
+  </si>
+  <si>
+    <t>0.525 (17)</t>
+  </si>
+  <si>
+    <t>0.568 (17)</t>
+  </si>
+  <si>
+    <t>0.564 (17)</t>
+  </si>
+  <si>
+    <t>0.596 (17)</t>
+  </si>
+  <si>
+    <t>48.81 (105)</t>
+  </si>
+  <si>
+    <t>46.229 (105)</t>
+  </si>
+  <si>
+    <t>42.571 (105)</t>
+  </si>
+  <si>
+    <t>40.962 (105)</t>
+  </si>
+  <si>
+    <t>39.667 (105)</t>
+  </si>
+  <si>
+    <t>11.343 (105)</t>
+  </si>
+  <si>
+    <t>12.571 (105)</t>
+  </si>
+  <si>
+    <t>13.19 (105)</t>
+  </si>
+  <si>
+    <t>13.429 (105)</t>
+  </si>
+  <si>
+    <t>13.962 (105)</t>
+  </si>
+  <si>
+    <t>0.578 (105)</t>
+  </si>
+  <si>
+    <t>0.588 (105)</t>
+  </si>
+  <si>
+    <t>0.596 (105)</t>
+  </si>
+  <si>
+    <t>0.606 (105)</t>
+  </si>
+  <si>
+    <t>0.621 (105)</t>
+  </si>
+  <si>
+    <t>52.779 (113)</t>
+  </si>
+  <si>
+    <t>50.31 (113)</t>
+  </si>
+  <si>
+    <t>48.23 (113)</t>
+  </si>
+  <si>
+    <t>46.522 (113)</t>
+  </si>
+  <si>
+    <t>45.133 (113)</t>
+  </si>
+  <si>
+    <t>9.619 (113)</t>
+  </si>
+  <si>
+    <t>11.027 (113)</t>
+  </si>
+  <si>
+    <t>11.159 (113)</t>
+  </si>
+  <si>
+    <t>11.575 (113)</t>
+  </si>
+  <si>
+    <t>11.761 (113)</t>
+  </si>
+  <si>
+    <t>0.597 (113)</t>
+  </si>
+  <si>
+    <t>0.596 (113)</t>
+  </si>
+  <si>
+    <t>0.598 (113)</t>
+  </si>
+  <si>
+    <t>0.624 (113)</t>
+  </si>
+  <si>
+    <t>0.631 (113)</t>
+  </si>
+  <si>
+    <t>54.19 (58)</t>
+  </si>
+  <si>
+    <t>50.276 (58)</t>
+  </si>
+  <si>
+    <t>48.5 (58)</t>
+  </si>
+  <si>
+    <t>48.207 (58)</t>
+  </si>
+  <si>
+    <t>46.914 (58)</t>
+  </si>
+  <si>
+    <t>9.483 (58)</t>
+  </si>
+  <si>
+    <t>10.759 (58)</t>
+  </si>
+  <si>
+    <t>11.0 (58)</t>
+  </si>
+  <si>
+    <t>10.81 (58)</t>
+  </si>
+  <si>
+    <t>11.069 (58)</t>
+  </si>
+  <si>
+    <t>0.598 (58)</t>
+  </si>
+  <si>
+    <t>0.616 (58)</t>
+  </si>
+  <si>
+    <t>0.628 (58)</t>
+  </si>
+  <si>
+    <t>0.63 (58)</t>
+  </si>
+  <si>
+    <t>45.6 (5)</t>
+  </si>
+  <si>
+    <t>51.6 (5)</t>
+  </si>
+  <si>
+    <t>35.6 (5)</t>
+  </si>
+  <si>
+    <t>37.4 (5)</t>
+  </si>
+  <si>
+    <t>34.6 (5)</t>
+  </si>
+  <si>
+    <t>11.8 (5)</t>
+  </si>
+  <si>
+    <t>8.4 (5)</t>
+  </si>
+  <si>
+    <t>16.0 (5)</t>
+  </si>
+  <si>
+    <t>14.8 (5)</t>
+  </si>
+  <si>
+    <t>16.2 (5)</t>
+  </si>
+  <si>
+    <t>0.598 (5)</t>
+  </si>
+  <si>
+    <t>0.63 (5)</t>
+  </si>
+  <si>
+    <t>0.599 (5)</t>
+  </si>
+  <si>
+    <t>0.528 (5)</t>
+  </si>
+  <si>
+    <t>0.573 (5)</t>
   </si>
 </sst>
 </file>
@@ -472,345 +2641,345 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>52.957</v>
-      </c>
-      <c r="C2">
-        <v>55.376</v>
-      </c>
-      <c r="D2">
-        <v>63.882</v>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
       </c>
       <c r="E2">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="F2">
-        <v>4.543</v>
+        <v>2.563</v>
       </c>
       <c r="G2">
-        <v>0.012</v>
+        <v>0.079</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>52.38</v>
-      </c>
-      <c r="C3">
-        <v>55.615</v>
-      </c>
-      <c r="D3">
-        <v>60.176</v>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
       </c>
       <c r="E3">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="F3">
-        <v>2.646</v>
+        <v>1.413</v>
       </c>
       <c r="G3">
-        <v>0.073</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>52.735</v>
-      </c>
-      <c r="C4">
-        <v>54.626</v>
-      </c>
-      <c r="D4">
-        <v>63.267</v>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
       </c>
       <c r="E4">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="F4">
-        <v>3.159</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="G4">
-        <v>0.044</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>52.094</v>
-      </c>
-      <c r="C5">
-        <v>54.567</v>
-      </c>
-      <c r="D5">
-        <v>63.353</v>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
       </c>
       <c r="E5">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="F5">
-        <v>4.05</v>
+        <v>3.216</v>
       </c>
       <c r="G5">
-        <v>0.019</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>53.138</v>
-      </c>
-      <c r="C6">
-        <v>53.66</v>
-      </c>
-      <c r="D6">
-        <v>63.824</v>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
       </c>
       <c r="E6">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="F6">
-        <v>3.9</v>
+        <v>4.222</v>
       </c>
       <c r="G6">
-        <v>0.022</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>9.625999999999999</v>
-      </c>
-      <c r="C7">
-        <v>8.675000000000001</v>
-      </c>
-      <c r="D7">
-        <v>5.765</v>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
       </c>
       <c r="E7">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="F7">
-        <v>5.08</v>
+        <v>2.59</v>
       </c>
       <c r="G7">
-        <v>0.007</v>
+        <v>0.077</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>9.787000000000001</v>
-      </c>
-      <c r="C8">
-        <v>8.452</v>
-      </c>
-      <c r="D8">
-        <v>7.176</v>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
       </c>
       <c r="E8">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="F8">
-        <v>2.795</v>
+        <v>1.181</v>
       </c>
       <c r="G8">
-        <v>0.063</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>9.49</v>
-      </c>
-      <c r="C9">
-        <v>8.737</v>
-      </c>
-      <c r="D9">
-        <v>6.133</v>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
       </c>
       <c r="E9">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="F9">
-        <v>2.616</v>
+        <v>0.64</v>
       </c>
       <c r="G9">
-        <v>0.075</v>
+        <v>0.528</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>9.448</v>
-      </c>
-      <c r="C10">
-        <v>8.526</v>
-      </c>
-      <c r="D10">
-        <v>6.706</v>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
       </c>
       <c r="E10">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="F10">
-        <v>2.151</v>
+        <v>2.043</v>
       </c>
       <c r="G10">
-        <v>0.119</v>
+        <v>0.132</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>8.816000000000001</v>
-      </c>
-      <c r="C11">
-        <v>8.596</v>
-      </c>
-      <c r="D11">
-        <v>6.118</v>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
       </c>
       <c r="E11">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="F11">
-        <v>1.936</v>
+        <v>2.938</v>
       </c>
       <c r="G11">
-        <v>0.147</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>0.584</v>
-      </c>
-      <c r="C12">
-        <v>0.587</v>
-      </c>
-      <c r="D12">
-        <v>0.611</v>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
       </c>
       <c r="E12">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="F12">
-        <v>0.239</v>
+        <v>0.223</v>
       </c>
       <c r="G12">
-        <v>0.788</v>
+        <v>0.801</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>0.585</v>
-      </c>
-      <c r="C13">
-        <v>0.597</v>
-      </c>
-      <c r="D13">
-        <v>0.625</v>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
       </c>
       <c r="E13">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="F13">
-        <v>0.597</v>
+        <v>0.601</v>
       </c>
       <c r="G13">
-        <v>0.551</v>
+        <v>0.549</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>0.6</v>
-      </c>
-      <c r="C14">
-        <v>0.593</v>
-      </c>
-      <c r="D14">
-        <v>0.637</v>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>61</v>
       </c>
       <c r="E14">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="F14">
-        <v>0.569</v>
+        <v>0.542</v>
       </c>
       <c r="G14">
-        <v>0.5669999999999999</v>
+        <v>0.582</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>0.614</v>
-      </c>
-      <c r="C15">
-        <v>0.603</v>
-      </c>
-      <c r="D15">
-        <v>0.669</v>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>62</v>
       </c>
       <c r="E15">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="F15">
-        <v>1.363</v>
+        <v>1.479</v>
       </c>
       <c r="G15">
-        <v>0.258</v>
+        <v>0.229</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>0.63</v>
-      </c>
-      <c r="C16">
-        <v>0.609</v>
-      </c>
-      <c r="D16">
-        <v>0.6830000000000001</v>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
       </c>
       <c r="E16">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="F16">
-        <v>1.806</v>
+        <v>2.029</v>
       </c>
       <c r="G16">
-        <v>0.167</v>
+        <v>0.133</v>
       </c>
     </row>
   </sheetData>
@@ -859,168 +3028,171 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>49.447</v>
-      </c>
-      <c r="C2">
-        <v>53.491</v>
-      </c>
-      <c r="D2">
-        <v>58.943</v>
-      </c>
-      <c r="E2">
-        <v>56.222</v>
-      </c>
-      <c r="F2">
-        <v>44</v>
+      <c r="B2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C2" t="s">
+        <v>535</v>
+      </c>
+      <c r="D2" t="s">
+        <v>550</v>
+      </c>
+      <c r="E2" t="s">
+        <v>565</v>
+      </c>
+      <c r="F2" t="s">
+        <v>580</v>
       </c>
       <c r="G2">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="H2">
-        <v>3.661</v>
+        <v>4.036</v>
       </c>
       <c r="I2">
-        <v>0.006</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>48.706</v>
-      </c>
-      <c r="C3">
-        <v>53.569</v>
-      </c>
-      <c r="D3">
-        <v>58.703</v>
-      </c>
-      <c r="E3">
-        <v>53.091</v>
-      </c>
-      <c r="F3">
-        <v>41</v>
+      <c r="B3" t="s">
+        <v>521</v>
+      </c>
+      <c r="C3" t="s">
+        <v>536</v>
+      </c>
+      <c r="D3" t="s">
+        <v>551</v>
+      </c>
+      <c r="E3" t="s">
+        <v>566</v>
+      </c>
+      <c r="F3" t="s">
+        <v>581</v>
       </c>
       <c r="G3">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="H3">
-        <v>3.203</v>
+        <v>2.163</v>
       </c>
       <c r="I3">
-        <v>0.014</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>50.156</v>
-      </c>
-      <c r="C4">
-        <v>51.75</v>
-      </c>
-      <c r="D4">
-        <v>58.805</v>
-      </c>
-      <c r="E4">
-        <v>61.143</v>
+      <c r="B4" t="s">
+        <v>522</v>
+      </c>
+      <c r="C4" t="s">
+        <v>537</v>
+      </c>
+      <c r="D4" t="s">
+        <v>552</v>
+      </c>
+      <c r="E4" t="s">
+        <v>567</v>
+      </c>
+      <c r="F4" t="s">
+        <v>582</v>
       </c>
       <c r="G4">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="H4">
-        <v>4.569</v>
+        <v>3.272</v>
       </c>
       <c r="I4">
-        <v>0.004</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>48.968</v>
-      </c>
-      <c r="C5">
-        <v>53.287</v>
-      </c>
-      <c r="D5">
-        <v>57.547</v>
-      </c>
-      <c r="E5">
-        <v>55.556</v>
-      </c>
-      <c r="F5">
-        <v>28</v>
+      <c r="B5" t="s">
+        <v>523</v>
+      </c>
+      <c r="C5" t="s">
+        <v>538</v>
+      </c>
+      <c r="D5" t="s">
+        <v>553</v>
+      </c>
+      <c r="E5" t="s">
+        <v>568</v>
+      </c>
+      <c r="F5" t="s">
+        <v>583</v>
       </c>
       <c r="G5">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="H5">
-        <v>2.693</v>
+        <v>2.525</v>
       </c>
       <c r="I5">
-        <v>0.032</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>50.296</v>
-      </c>
-      <c r="C6">
-        <v>52.42</v>
-      </c>
-      <c r="D6">
-        <v>57.667</v>
-      </c>
-      <c r="E6">
-        <v>59.857</v>
-      </c>
-      <c r="F6">
-        <v>37</v>
+      <c r="B6" t="s">
+        <v>524</v>
+      </c>
+      <c r="C6" t="s">
+        <v>539</v>
+      </c>
+      <c r="D6" t="s">
+        <v>554</v>
+      </c>
+      <c r="E6" t="s">
+        <v>569</v>
+      </c>
+      <c r="F6" t="s">
+        <v>584</v>
       </c>
       <c r="G6">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="H6">
-        <v>2.421</v>
+        <v>3.55</v>
       </c>
       <c r="I6">
-        <v>0.05</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>11.053</v>
-      </c>
-      <c r="C7">
-        <v>9.518000000000001</v>
-      </c>
-      <c r="D7">
-        <v>7.195</v>
-      </c>
-      <c r="E7">
-        <v>8.667</v>
-      </c>
-      <c r="F7">
-        <v>11</v>
+      <c r="B7" t="s">
+        <v>525</v>
+      </c>
+      <c r="C7" t="s">
+        <v>540</v>
+      </c>
+      <c r="D7" t="s">
+        <v>555</v>
+      </c>
+      <c r="E7" t="s">
+        <v>570</v>
+      </c>
+      <c r="F7" t="s">
+        <v>585</v>
       </c>
       <c r="G7">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="H7">
-        <v>5.379</v>
+        <v>5.242</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1030,255 +3202,261 @@
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>11.088</v>
-      </c>
-      <c r="C8">
-        <v>9.413</v>
-      </c>
-      <c r="D8">
-        <v>7.311</v>
-      </c>
-      <c r="E8">
-        <v>9.455</v>
-      </c>
-      <c r="F8">
-        <v>10</v>
+      <c r="B8" t="s">
+        <v>526</v>
+      </c>
+      <c r="C8" t="s">
+        <v>541</v>
+      </c>
+      <c r="D8" t="s">
+        <v>556</v>
+      </c>
+      <c r="E8" t="s">
+        <v>571</v>
+      </c>
+      <c r="F8" t="s">
+        <v>586</v>
       </c>
       <c r="G8">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="H8">
-        <v>3.543</v>
+        <v>2.122</v>
       </c>
       <c r="I8">
-        <v>0.008</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>10.281</v>
-      </c>
-      <c r="C9">
-        <v>9.859999999999999</v>
-      </c>
-      <c r="D9">
-        <v>7.195</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
+      <c r="B9" t="s">
+        <v>527</v>
+      </c>
+      <c r="C9" t="s">
+        <v>542</v>
+      </c>
+      <c r="D9" t="s">
+        <v>557</v>
+      </c>
+      <c r="E9" t="s">
+        <v>572</v>
+      </c>
+      <c r="F9" t="s">
+        <v>582</v>
       </c>
       <c r="G9">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="H9">
-        <v>4.51</v>
+        <v>3.497</v>
       </c>
       <c r="I9">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>10.452</v>
-      </c>
-      <c r="C10">
-        <v>9.032</v>
-      </c>
-      <c r="D10">
-        <v>7.787</v>
-      </c>
-      <c r="E10">
-        <v>8.333</v>
-      </c>
-      <c r="F10">
-        <v>16</v>
+      <c r="B10" t="s">
+        <v>528</v>
+      </c>
+      <c r="C10" t="s">
+        <v>543</v>
+      </c>
+      <c r="D10" t="s">
+        <v>558</v>
+      </c>
+      <c r="E10" t="s">
+        <v>573</v>
+      </c>
+      <c r="F10" t="s">
+        <v>587</v>
       </c>
       <c r="G10">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="H10">
-        <v>1.955</v>
+        <v>2.088</v>
       </c>
       <c r="I10">
-        <v>0.103</v>
+        <v>0.082</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>9.444000000000001</v>
-      </c>
-      <c r="C11">
-        <v>9.455</v>
-      </c>
-      <c r="D11">
-        <v>7.133</v>
-      </c>
-      <c r="E11">
-        <v>6.286</v>
-      </c>
-      <c r="F11">
-        <v>13</v>
+      <c r="B11" t="s">
+        <v>529</v>
+      </c>
+      <c r="C11" t="s">
+        <v>544</v>
+      </c>
+      <c r="D11" t="s">
+        <v>559</v>
+      </c>
+      <c r="E11" t="s">
+        <v>574</v>
+      </c>
+      <c r="F11" t="s">
+        <v>588</v>
       </c>
       <c r="G11">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="H11">
-        <v>2.803</v>
+        <v>3.75</v>
       </c>
       <c r="I11">
-        <v>0.027</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>0.5649999999999999</v>
-      </c>
-      <c r="C12">
-        <v>0.582</v>
-      </c>
-      <c r="D12">
-        <v>0.604</v>
-      </c>
-      <c r="E12">
-        <v>0.595</v>
-      </c>
-      <c r="F12">
-        <v>0.463</v>
+      <c r="B12" t="s">
+        <v>530</v>
+      </c>
+      <c r="C12" t="s">
+        <v>545</v>
+      </c>
+      <c r="D12" t="s">
+        <v>560</v>
+      </c>
+      <c r="E12" t="s">
+        <v>575</v>
+      </c>
+      <c r="F12" t="s">
+        <v>589</v>
       </c>
       <c r="G12">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="H12">
-        <v>0.737</v>
+        <v>0.773</v>
       </c>
       <c r="I12">
-        <v>0.5669999999999999</v>
+        <v>0.544</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>0.5679999999999999</v>
-      </c>
-      <c r="C13">
-        <v>0.586</v>
-      </c>
-      <c r="D13">
-        <v>0.613</v>
-      </c>
-      <c r="E13">
-        <v>0.621</v>
-      </c>
-      <c r="F13">
-        <v>0.479</v>
+      <c r="B13" t="s">
+        <v>531</v>
+      </c>
+      <c r="C13" t="s">
+        <v>546</v>
+      </c>
+      <c r="D13" t="s">
+        <v>561</v>
+      </c>
+      <c r="E13" t="s">
+        <v>576</v>
+      </c>
+      <c r="F13" t="s">
+        <v>590</v>
       </c>
       <c r="G13">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="H13">
-        <v>0.923</v>
+        <v>0.958</v>
       </c>
       <c r="I13">
-        <v>0.451</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>0.573</v>
-      </c>
-      <c r="C14">
-        <v>0.602</v>
-      </c>
-      <c r="D14">
-        <v>0.607</v>
-      </c>
-      <c r="E14">
-        <v>0.594</v>
+      <c r="B14" t="s">
+        <v>532</v>
+      </c>
+      <c r="C14" t="s">
+        <v>547</v>
+      </c>
+      <c r="D14" t="s">
+        <v>562</v>
+      </c>
+      <c r="E14" t="s">
+        <v>577</v>
+      </c>
+      <c r="F14" t="s">
+        <v>591</v>
       </c>
       <c r="G14">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="H14">
-        <v>0.392</v>
+        <v>0.275</v>
       </c>
       <c r="I14">
-        <v>0.759</v>
+        <v>0.894</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>0.576</v>
-      </c>
-      <c r="C15">
-        <v>0.62</v>
-      </c>
-      <c r="D15">
-        <v>0.627</v>
-      </c>
-      <c r="E15">
-        <v>0.57</v>
-      </c>
-      <c r="F15">
-        <v>0.503</v>
+      <c r="B15" t="s">
+        <v>533</v>
+      </c>
+      <c r="C15" t="s">
+        <v>548</v>
+      </c>
+      <c r="D15" t="s">
+        <v>563</v>
+      </c>
+      <c r="E15" t="s">
+        <v>578</v>
+      </c>
+      <c r="F15" t="s">
+        <v>592</v>
       </c>
       <c r="G15">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="H15">
-        <v>0.98</v>
+        <v>1.012</v>
       </c>
       <c r="I15">
-        <v>0.419</v>
+        <v>0.401</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>0.627</v>
-      </c>
-      <c r="C16">
-        <v>0.607</v>
-      </c>
-      <c r="D16">
-        <v>0.648</v>
-      </c>
-      <c r="E16">
-        <v>0.58</v>
-      </c>
-      <c r="F16">
-        <v>0.522</v>
+      <c r="B16" t="s">
+        <v>534</v>
+      </c>
+      <c r="C16" t="s">
+        <v>549</v>
+      </c>
+      <c r="D16" t="s">
+        <v>564</v>
+      </c>
+      <c r="E16" t="s">
+        <v>579</v>
+      </c>
+      <c r="F16" t="s">
+        <v>593</v>
       </c>
       <c r="G16">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="H16">
-        <v>0.995</v>
+        <v>1.095</v>
       </c>
       <c r="I16">
-        <v>0.411</v>
+        <v>0.359</v>
       </c>
     </row>
   </sheetData>
@@ -1327,26 +3505,26 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>46.625</v>
-      </c>
-      <c r="C2">
-        <v>53.426</v>
-      </c>
-      <c r="D2">
-        <v>57.124</v>
-      </c>
-      <c r="E2">
-        <v>60.696</v>
-      </c>
-      <c r="F2">
-        <v>40</v>
+      <c r="B2" t="s">
+        <v>594</v>
+      </c>
+      <c r="C2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D2" t="s">
+        <v>624</v>
+      </c>
+      <c r="E2" t="s">
+        <v>639</v>
+      </c>
+      <c r="F2" t="s">
+        <v>653</v>
       </c>
       <c r="G2">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="H2">
-        <v>4.874</v>
+        <v>4.939</v>
       </c>
       <c r="I2">
         <v>0.001</v>
@@ -1356,142 +3534,142 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>45.136</v>
-      </c>
-      <c r="C3">
-        <v>53.011</v>
-      </c>
-      <c r="D3">
-        <v>57.14</v>
-      </c>
-      <c r="E3">
-        <v>59.409</v>
-      </c>
-      <c r="F3">
-        <v>44</v>
+      <c r="B3" t="s">
+        <v>595</v>
+      </c>
+      <c r="C3" t="s">
+        <v>610</v>
+      </c>
+      <c r="D3" t="s">
+        <v>625</v>
+      </c>
+      <c r="E3" t="s">
+        <v>640</v>
+      </c>
+      <c r="F3" t="s">
+        <v>654</v>
       </c>
       <c r="G3">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="H3">
-        <v>4.318</v>
+        <v>3.4</v>
       </c>
       <c r="I3">
-        <v>0.002</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>46.6</v>
-      </c>
-      <c r="C4">
-        <v>51.605</v>
-      </c>
-      <c r="D4">
-        <v>56.789</v>
-      </c>
-      <c r="E4">
-        <v>62.737</v>
-      </c>
-      <c r="F4">
-        <v>37</v>
+      <c r="B4" t="s">
+        <v>596</v>
+      </c>
+      <c r="C4" t="s">
+        <v>611</v>
+      </c>
+      <c r="D4" t="s">
+        <v>626</v>
+      </c>
+      <c r="E4" t="s">
+        <v>641</v>
+      </c>
+      <c r="F4" t="s">
+        <v>655</v>
       </c>
       <c r="G4">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="H4">
-        <v>4.518</v>
+        <v>4.777</v>
       </c>
       <c r="I4">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>47.211</v>
-      </c>
-      <c r="C5">
-        <v>52.506</v>
-      </c>
-      <c r="D5">
-        <v>55.989</v>
-      </c>
-      <c r="E5">
-        <v>60.333</v>
-      </c>
-      <c r="F5">
-        <v>34.5</v>
+      <c r="B5" t="s">
+        <v>597</v>
+      </c>
+      <c r="C5" t="s">
+        <v>612</v>
+      </c>
+      <c r="D5" t="s">
+        <v>627</v>
+      </c>
+      <c r="E5" t="s">
+        <v>642</v>
+      </c>
+      <c r="F5" t="s">
+        <v>656</v>
       </c>
       <c r="G5">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="H5">
-        <v>3.316</v>
+        <v>3.75</v>
       </c>
       <c r="I5">
-        <v>0.012</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>49.562</v>
-      </c>
-      <c r="C6">
-        <v>51.986</v>
-      </c>
-      <c r="D6">
-        <v>56.011</v>
-      </c>
-      <c r="E6">
-        <v>59.9</v>
-      </c>
-      <c r="F6">
-        <v>37</v>
+      <c r="B6" t="s">
+        <v>598</v>
+      </c>
+      <c r="C6" t="s">
+        <v>613</v>
+      </c>
+      <c r="D6" t="s">
+        <v>628</v>
+      </c>
+      <c r="E6" t="s">
+        <v>643</v>
+      </c>
+      <c r="F6" t="s">
+        <v>657</v>
       </c>
       <c r="G6">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="H6">
-        <v>2.211</v>
+        <v>4.143</v>
       </c>
       <c r="I6">
-        <v>0.06900000000000001</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>11.875</v>
-      </c>
-      <c r="C7">
-        <v>9.585000000000001</v>
-      </c>
-      <c r="D7">
-        <v>7.924</v>
-      </c>
-      <c r="E7">
-        <v>6.957</v>
-      </c>
-      <c r="F7">
-        <v>14</v>
+      <c r="B7" t="s">
+        <v>599</v>
+      </c>
+      <c r="C7" t="s">
+        <v>614</v>
+      </c>
+      <c r="D7" t="s">
+        <v>629</v>
+      </c>
+      <c r="E7" t="s">
+        <v>644</v>
+      </c>
+      <c r="F7" t="s">
+        <v>658</v>
       </c>
       <c r="G7">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="H7">
-        <v>5.926</v>
+        <v>5.667</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1501,261 +3679,261 @@
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>12.409</v>
-      </c>
-      <c r="C8">
-        <v>9.606999999999999</v>
-      </c>
-      <c r="D8">
-        <v>7.925</v>
-      </c>
-      <c r="E8">
-        <v>7.318</v>
-      </c>
-      <c r="F8">
-        <v>10.667</v>
+      <c r="B8" t="s">
+        <v>600</v>
+      </c>
+      <c r="C8" t="s">
+        <v>615</v>
+      </c>
+      <c r="D8" t="s">
+        <v>630</v>
+      </c>
+      <c r="E8" t="s">
+        <v>645</v>
+      </c>
+      <c r="F8" t="s">
+        <v>659</v>
       </c>
       <c r="G8">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="H8">
-        <v>4.398</v>
+        <v>3.281</v>
       </c>
       <c r="I8">
-        <v>0.002</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>11.75</v>
-      </c>
-      <c r="C9">
-        <v>9.901</v>
-      </c>
-      <c r="D9">
-        <v>7.842</v>
-      </c>
-      <c r="E9">
-        <v>6.632</v>
-      </c>
-      <c r="F9">
-        <v>17</v>
+      <c r="B9" t="s">
+        <v>601</v>
+      </c>
+      <c r="C9" t="s">
+        <v>616</v>
+      </c>
+      <c r="D9" t="s">
+        <v>631</v>
+      </c>
+      <c r="E9" t="s">
+        <v>646</v>
+      </c>
+      <c r="F9" t="s">
+        <v>660</v>
       </c>
       <c r="G9">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="H9">
-        <v>4.616</v>
+        <v>5.235</v>
       </c>
       <c r="I9">
-        <v>0.001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>11.316</v>
-      </c>
-      <c r="C10">
-        <v>9.311999999999999</v>
-      </c>
-      <c r="D10">
-        <v>8.066000000000001</v>
-      </c>
-      <c r="E10">
-        <v>7.19</v>
-      </c>
-      <c r="F10">
-        <v>15.5</v>
+      <c r="B10" t="s">
+        <v>602</v>
+      </c>
+      <c r="C10" t="s">
+        <v>617</v>
+      </c>
+      <c r="D10" t="s">
+        <v>632</v>
+      </c>
+      <c r="E10" t="s">
+        <v>647</v>
+      </c>
+      <c r="F10" t="s">
+        <v>661</v>
       </c>
       <c r="G10">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="H10">
-        <v>3.018</v>
+        <v>3.653</v>
       </c>
       <c r="I10">
-        <v>0.019</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>9.875</v>
-      </c>
-      <c r="C11">
-        <v>9.507</v>
-      </c>
-      <c r="D11">
-        <v>7.693</v>
-      </c>
-      <c r="E11">
-        <v>6.85</v>
-      </c>
-      <c r="F11">
-        <v>13</v>
+      <c r="B11" t="s">
+        <v>603</v>
+      </c>
+      <c r="C11" t="s">
+        <v>618</v>
+      </c>
+      <c r="D11" t="s">
+        <v>633</v>
+      </c>
+      <c r="E11" t="s">
+        <v>648</v>
+      </c>
+      <c r="F11" t="s">
+        <v>662</v>
       </c>
       <c r="G11">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="H11">
-        <v>2.188</v>
+        <v>4.213</v>
       </c>
       <c r="I11">
-        <v>0.07199999999999999</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>0.544</v>
-      </c>
-      <c r="C12">
-        <v>0.579</v>
-      </c>
-      <c r="D12">
-        <v>0.599</v>
-      </c>
-      <c r="E12">
-        <v>0.607</v>
-      </c>
-      <c r="F12">
-        <v>0.608</v>
+      <c r="B12" t="s">
+        <v>604</v>
+      </c>
+      <c r="C12" t="s">
+        <v>619</v>
+      </c>
+      <c r="D12" t="s">
+        <v>634</v>
+      </c>
+      <c r="E12" t="s">
+        <v>649</v>
+      </c>
+      <c r="F12" t="s">
+        <v>663</v>
       </c>
       <c r="G12">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="H12">
-        <v>0.876</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="I12">
-        <v>0.479</v>
+        <v>0.515</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>0.544</v>
-      </c>
-      <c r="C13">
-        <v>0.585</v>
-      </c>
-      <c r="D13">
-        <v>0.611</v>
-      </c>
-      <c r="E13">
-        <v>0.598</v>
-      </c>
-      <c r="F13">
-        <v>0.67</v>
+      <c r="B13" t="s">
+        <v>605</v>
+      </c>
+      <c r="C13" t="s">
+        <v>620</v>
+      </c>
+      <c r="D13" t="s">
+        <v>635</v>
+      </c>
+      <c r="E13" t="s">
+        <v>650</v>
+      </c>
+      <c r="F13" t="s">
+        <v>664</v>
       </c>
       <c r="G13">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="H13">
-        <v>1.285</v>
+        <v>1.268</v>
       </c>
       <c r="I13">
-        <v>0.277</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>0.542</v>
-      </c>
-      <c r="C14">
-        <v>0.598</v>
-      </c>
-      <c r="D14">
-        <v>0.611</v>
-      </c>
-      <c r="E14">
-        <v>0.596</v>
-      </c>
-      <c r="F14">
-        <v>0.758</v>
+      <c r="B14" t="s">
+        <v>606</v>
+      </c>
+      <c r="C14" t="s">
+        <v>621</v>
+      </c>
+      <c r="D14" t="s">
+        <v>636</v>
+      </c>
+      <c r="E14" t="s">
+        <v>650</v>
+      </c>
+      <c r="F14" t="s">
+        <v>665</v>
       </c>
       <c r="G14">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="H14">
-        <v>1.18</v>
+        <v>0.923</v>
       </c>
       <c r="I14">
-        <v>0.32</v>
+        <v>0.451</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>0.5590000000000001</v>
-      </c>
-      <c r="C15">
-        <v>0.607</v>
-      </c>
-      <c r="D15">
-        <v>0.632</v>
-      </c>
-      <c r="E15">
-        <v>0.62</v>
-      </c>
-      <c r="F15">
-        <v>0.454</v>
+      <c r="B15" t="s">
+        <v>607</v>
+      </c>
+      <c r="C15" t="s">
+        <v>622</v>
+      </c>
+      <c r="D15" t="s">
+        <v>637</v>
+      </c>
+      <c r="E15" t="s">
+        <v>651</v>
+      </c>
+      <c r="F15" t="s">
+        <v>666</v>
       </c>
       <c r="G15">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="H15">
-        <v>1.618</v>
+        <v>1.502</v>
       </c>
       <c r="I15">
-        <v>0.171</v>
+        <v>0.201</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>0.595</v>
-      </c>
-      <c r="C16">
-        <v>0.614</v>
-      </c>
-      <c r="D16">
-        <v>0.644</v>
-      </c>
-      <c r="E16">
-        <v>0.602</v>
-      </c>
-      <c r="F16">
-        <v>0.522</v>
+      <c r="B16" t="s">
+        <v>608</v>
+      </c>
+      <c r="C16" t="s">
+        <v>623</v>
+      </c>
+      <c r="D16" t="s">
+        <v>638</v>
+      </c>
+      <c r="E16" t="s">
+        <v>652</v>
+      </c>
+      <c r="F16" t="s">
+        <v>667</v>
       </c>
       <c r="G16">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="H16">
-        <v>0.8</v>
+        <v>0.755</v>
       </c>
       <c r="I16">
-        <v>0.526</v>
+        <v>0.555</v>
       </c>
     </row>
   </sheetData>
@@ -1804,435 +3982,435 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>44.091</v>
-      </c>
-      <c r="C2">
-        <v>52.701</v>
-      </c>
-      <c r="D2">
-        <v>56.536</v>
-      </c>
-      <c r="E2">
-        <v>58.633</v>
-      </c>
-      <c r="F2">
-        <v>45.6</v>
+      <c r="B2" t="s">
+        <v>668</v>
+      </c>
+      <c r="C2" t="s">
+        <v>683</v>
+      </c>
+      <c r="D2" t="s">
+        <v>698</v>
+      </c>
+      <c r="E2" t="s">
+        <v>713</v>
+      </c>
+      <c r="F2" t="s">
+        <v>727</v>
       </c>
       <c r="G2">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="H2">
-        <v>3.886</v>
+        <v>4.01</v>
       </c>
       <c r="I2">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>42.5</v>
-      </c>
-      <c r="C3">
-        <v>52.557</v>
-      </c>
-      <c r="D3">
-        <v>56.267</v>
-      </c>
-      <c r="E3">
-        <v>57</v>
-      </c>
-      <c r="F3">
-        <v>51.6</v>
+      <c r="B3" t="s">
+        <v>669</v>
+      </c>
+      <c r="C3" t="s">
+        <v>684</v>
+      </c>
+      <c r="D3" t="s">
+        <v>699</v>
+      </c>
+      <c r="E3" t="s">
+        <v>714</v>
+      </c>
+      <c r="F3" t="s">
+        <v>728</v>
       </c>
       <c r="G3">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="H3">
-        <v>2.708</v>
+        <v>3.114</v>
       </c>
       <c r="I3">
-        <v>0.031</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>44.75</v>
-      </c>
-      <c r="C4">
-        <v>52.027</v>
-      </c>
-      <c r="D4">
-        <v>54.813</v>
-      </c>
-      <c r="E4">
-        <v>59.902</v>
-      </c>
-      <c r="F4">
-        <v>45.333</v>
+      <c r="B4" t="s">
+        <v>670</v>
+      </c>
+      <c r="C4" t="s">
+        <v>685</v>
+      </c>
+      <c r="D4" t="s">
+        <v>700</v>
+      </c>
+      <c r="E4" t="s">
+        <v>715</v>
+      </c>
+      <c r="F4" t="s">
+        <v>729</v>
       </c>
       <c r="G4">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="H4">
-        <v>2.908</v>
+        <v>3.78</v>
       </c>
       <c r="I4">
-        <v>0.023</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>47.778</v>
-      </c>
-      <c r="C5">
-        <v>51.899</v>
-      </c>
-      <c r="D5">
-        <v>56.549</v>
-      </c>
-      <c r="E5">
-        <v>55.565</v>
-      </c>
-      <c r="F5">
-        <v>41.75</v>
+      <c r="B5" t="s">
+        <v>671</v>
+      </c>
+      <c r="C5" t="s">
+        <v>686</v>
+      </c>
+      <c r="D5" t="s">
+        <v>701</v>
+      </c>
+      <c r="E5" t="s">
+        <v>716</v>
+      </c>
+      <c r="F5" t="s">
+        <v>730</v>
       </c>
       <c r="G5">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="H5">
-        <v>2.041</v>
+        <v>2.746</v>
       </c>
       <c r="I5">
-        <v>0.09</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>45.3</v>
-      </c>
-      <c r="C6">
-        <v>53.852</v>
-      </c>
-      <c r="D6">
-        <v>54.634</v>
-      </c>
-      <c r="E6">
-        <v>57.167</v>
-      </c>
-      <c r="F6">
-        <v>44.333</v>
+      <c r="B6" t="s">
+        <v>672</v>
+      </c>
+      <c r="C6" t="s">
+        <v>687</v>
+      </c>
+      <c r="D6" t="s">
+        <v>702</v>
+      </c>
+      <c r="E6" t="s">
+        <v>717</v>
+      </c>
+      <c r="F6" t="s">
+        <v>731</v>
       </c>
       <c r="G6">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="H6">
-        <v>1.667</v>
+        <v>2.495</v>
       </c>
       <c r="I6">
-        <v>0.159</v>
+        <v>0.043</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>13.636</v>
-      </c>
-      <c r="C7">
-        <v>9.759</v>
-      </c>
-      <c r="D7">
-        <v>8.071999999999999</v>
-      </c>
-      <c r="E7">
-        <v>7.735</v>
-      </c>
-      <c r="F7">
-        <v>11.8</v>
+      <c r="B7" t="s">
+        <v>673</v>
+      </c>
+      <c r="C7" t="s">
+        <v>688</v>
+      </c>
+      <c r="D7" t="s">
+        <v>703</v>
+      </c>
+      <c r="E7" t="s">
+        <v>718</v>
+      </c>
+      <c r="F7" t="s">
+        <v>732</v>
       </c>
       <c r="G7">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="H7">
-        <v>5.486</v>
+        <v>5.139</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>12.8</v>
-      </c>
-      <c r="C8">
-        <v>9.797000000000001</v>
-      </c>
-      <c r="D8">
-        <v>8.478</v>
-      </c>
-      <c r="E8">
-        <v>7.8</v>
-      </c>
-      <c r="F8">
-        <v>8.4</v>
+      <c r="B8" t="s">
+        <v>674</v>
+      </c>
+      <c r="C8" t="s">
+        <v>689</v>
+      </c>
+      <c r="D8" t="s">
+        <v>704</v>
+      </c>
+      <c r="E8" t="s">
+        <v>719</v>
+      </c>
+      <c r="F8" t="s">
+        <v>733</v>
       </c>
       <c r="G8">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="H8">
-        <v>2.614</v>
+        <v>3.13</v>
       </c>
       <c r="I8">
-        <v>0.036</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>11.75</v>
-      </c>
-      <c r="C9">
-        <v>9.766999999999999</v>
-      </c>
-      <c r="D9">
-        <v>8.779999999999999</v>
-      </c>
-      <c r="E9">
-        <v>6.854</v>
-      </c>
-      <c r="F9">
-        <v>12.667</v>
+      <c r="B9" t="s">
+        <v>675</v>
+      </c>
+      <c r="C9" t="s">
+        <v>690</v>
+      </c>
+      <c r="D9" t="s">
+        <v>705</v>
+      </c>
+      <c r="E9" t="s">
+        <v>720</v>
+      </c>
+      <c r="F9" t="s">
+        <v>734</v>
       </c>
       <c r="G9">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="H9">
-        <v>2.927</v>
+        <v>3.66</v>
       </c>
       <c r="I9">
-        <v>0.022</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>12.111</v>
-      </c>
-      <c r="C10">
-        <v>9.478</v>
-      </c>
-      <c r="D10">
-        <v>8.012</v>
-      </c>
-      <c r="E10">
-        <v>8.151999999999999</v>
-      </c>
-      <c r="F10">
-        <v>13.25</v>
+      <c r="B10" t="s">
+        <v>676</v>
+      </c>
+      <c r="C10" t="s">
+        <v>691</v>
+      </c>
+      <c r="D10" t="s">
+        <v>706</v>
+      </c>
+      <c r="E10" t="s">
+        <v>721</v>
+      </c>
+      <c r="F10" t="s">
+        <v>735</v>
       </c>
       <c r="G10">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="H10">
-        <v>2.507</v>
+        <v>3.114</v>
       </c>
       <c r="I10">
-        <v>0.043</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>11.4</v>
-      </c>
-      <c r="C11">
-        <v>8.885</v>
-      </c>
-      <c r="D11">
-        <v>8.268000000000001</v>
-      </c>
-      <c r="E11">
-        <v>7.286</v>
-      </c>
-      <c r="F11">
-        <v>13</v>
+      <c r="B11" t="s">
+        <v>677</v>
+      </c>
+      <c r="C11" t="s">
+        <v>692</v>
+      </c>
+      <c r="D11" t="s">
+        <v>707</v>
+      </c>
+      <c r="E11" t="s">
+        <v>722</v>
+      </c>
+      <c r="F11" t="s">
+        <v>736</v>
       </c>
       <c r="G11">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="H11">
-        <v>2.034</v>
+        <v>2.89</v>
       </c>
       <c r="I11">
-        <v>0.091</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>0.506</v>
-      </c>
-      <c r="C12">
-        <v>0.576</v>
-      </c>
-      <c r="D12">
-        <v>0.599</v>
-      </c>
-      <c r="E12">
-        <v>0.6</v>
-      </c>
-      <c r="F12">
-        <v>0.598</v>
+      <c r="B12" t="s">
+        <v>678</v>
+      </c>
+      <c r="C12" t="s">
+        <v>693</v>
+      </c>
+      <c r="D12" t="s">
+        <v>708</v>
+      </c>
+      <c r="E12" t="s">
+        <v>723</v>
+      </c>
+      <c r="F12" t="s">
+        <v>737</v>
       </c>
       <c r="G12">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="H12">
-        <v>1.24</v>
+        <v>1.054</v>
       </c>
       <c r="I12">
-        <v>0.295</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>0.477</v>
-      </c>
-      <c r="C13">
-        <v>0.586</v>
-      </c>
-      <c r="D13">
-        <v>0.597</v>
-      </c>
-      <c r="E13">
-        <v>0.622</v>
-      </c>
-      <c r="F13">
-        <v>0.63</v>
+      <c r="B13" t="s">
+        <v>679</v>
+      </c>
+      <c r="C13" t="s">
+        <v>694</v>
+      </c>
+      <c r="D13" t="s">
+        <v>709</v>
+      </c>
+      <c r="E13" t="s">
+        <v>724</v>
+      </c>
+      <c r="F13" t="s">
+        <v>738</v>
       </c>
       <c r="G13">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="H13">
-        <v>2.245</v>
+        <v>1.866</v>
       </c>
       <c r="I13">
-        <v>0.065</v>
+        <v>0.116</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>0.532</v>
-      </c>
-      <c r="C14">
-        <v>0.594</v>
-      </c>
-      <c r="D14">
-        <v>0.598</v>
-      </c>
-      <c r="E14">
-        <v>0.623</v>
-      </c>
-      <c r="F14">
-        <v>0.599</v>
+      <c r="B14" t="s">
+        <v>680</v>
+      </c>
+      <c r="C14" t="s">
+        <v>695</v>
+      </c>
+      <c r="D14" t="s">
+        <v>710</v>
+      </c>
+      <c r="E14" t="s">
+        <v>724</v>
+      </c>
+      <c r="F14" t="s">
+        <v>739</v>
       </c>
       <c r="G14">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="H14">
-        <v>0.678</v>
+        <v>0.533</v>
       </c>
       <c r="I14">
-        <v>0.608</v>
+        <v>0.712</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>0.52</v>
-      </c>
-      <c r="C15">
-        <v>0.602</v>
-      </c>
-      <c r="D15">
-        <v>0.628</v>
-      </c>
-      <c r="E15">
-        <v>0.631</v>
-      </c>
-      <c r="F15">
-        <v>0.507</v>
+      <c r="B15" t="s">
+        <v>681</v>
+      </c>
+      <c r="C15" t="s">
+        <v>696</v>
+      </c>
+      <c r="D15" t="s">
+        <v>711</v>
+      </c>
+      <c r="E15" t="s">
+        <v>725</v>
+      </c>
+      <c r="F15" t="s">
+        <v>740</v>
       </c>
       <c r="G15">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="H15">
-        <v>1.844</v>
+        <v>1.709</v>
       </c>
       <c r="I15">
-        <v>0.122</v>
+        <v>0.148</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>0.576</v>
-      </c>
-      <c r="C16">
-        <v>0.618</v>
-      </c>
-      <c r="D16">
-        <v>0.634</v>
-      </c>
-      <c r="E16">
-        <v>0.632</v>
-      </c>
-      <c r="F16">
-        <v>0.539</v>
+      <c r="B16" t="s">
+        <v>682</v>
+      </c>
+      <c r="C16" t="s">
+        <v>697</v>
+      </c>
+      <c r="D16" t="s">
+        <v>712</v>
+      </c>
+      <c r="E16" t="s">
+        <v>726</v>
+      </c>
+      <c r="F16" t="s">
+        <v>741</v>
       </c>
       <c r="G16">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="H16">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I16">
-        <v>0.663</v>
+        <v>0.6919999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2275,345 +4453,345 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>52.253</v>
-      </c>
-      <c r="C2">
-        <v>55.556</v>
-      </c>
-      <c r="D2">
-        <v>59.147</v>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
       </c>
       <c r="E2">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="F2">
-        <v>3.199</v>
+        <v>3.508</v>
       </c>
       <c r="G2">
-        <v>0.042</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>51.907</v>
-      </c>
-      <c r="C3">
-        <v>55.144</v>
-      </c>
-      <c r="D3">
-        <v>58.719</v>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" t="s">
+        <v>95</v>
       </c>
       <c r="E3">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="F3">
-        <v>2.719</v>
+        <v>2.039</v>
       </c>
       <c r="G3">
-        <v>0.068</v>
+        <v>0.132</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>52.346</v>
-      </c>
-      <c r="C4">
-        <v>54.019</v>
-      </c>
-      <c r="D4">
-        <v>61.034</v>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" t="s">
+        <v>96</v>
       </c>
       <c r="E4">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="F4">
-        <v>3.531</v>
+        <v>1.438</v>
       </c>
       <c r="G4">
-        <v>0.031</v>
+        <v>0.239</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>51.679</v>
-      </c>
-      <c r="C5">
-        <v>54.48</v>
-      </c>
-      <c r="D5">
-        <v>59.125</v>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" t="s">
+        <v>97</v>
       </c>
       <c r="E5">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="F5">
-        <v>2.748</v>
+        <v>2.926</v>
       </c>
       <c r="G5">
-        <v>0.066</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>53.551</v>
-      </c>
-      <c r="C6">
-        <v>54</v>
-      </c>
-      <c r="D6">
-        <v>56.676</v>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" t="s">
+        <v>98</v>
       </c>
       <c r="E6">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="F6">
-        <v>0.531</v>
+        <v>3.825</v>
       </c>
       <c r="G6">
-        <v>0.589</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>10.022</v>
-      </c>
-      <c r="C7">
-        <v>8.565</v>
-      </c>
-      <c r="D7">
-        <v>7.235</v>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" t="s">
+        <v>99</v>
       </c>
       <c r="E7">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="F7">
-        <v>4.833</v>
+        <v>4.675</v>
       </c>
       <c r="G7">
-        <v>0.008999999999999999</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>9.919</v>
-      </c>
-      <c r="C8">
-        <v>8.694000000000001</v>
-      </c>
-      <c r="D8">
-        <v>7.5</v>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" t="s">
+        <v>100</v>
       </c>
       <c r="E8">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="F8">
-        <v>2.801</v>
+        <v>1.818</v>
       </c>
       <c r="G8">
-        <v>0.063</v>
+        <v>0.164</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>9.568</v>
-      </c>
-      <c r="C9">
-        <v>9.028</v>
-      </c>
-      <c r="D9">
-        <v>6.655</v>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" t="s">
+        <v>101</v>
       </c>
       <c r="E9">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="F9">
-        <v>3.163</v>
+        <v>1.254</v>
       </c>
       <c r="G9">
-        <v>0.044</v>
+        <v>0.287</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>9.654</v>
-      </c>
-      <c r="C10">
-        <v>8.6</v>
-      </c>
-      <c r="D10">
-        <v>7.344</v>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" t="s">
+        <v>102</v>
       </c>
       <c r="E10">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="F10">
-        <v>2.269</v>
+        <v>2.505</v>
       </c>
       <c r="G10">
-        <v>0.106</v>
+        <v>0.083</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>8.710000000000001</v>
-      </c>
-      <c r="C11">
-        <v>8.579000000000001</v>
-      </c>
-      <c r="D11">
-        <v>7.735</v>
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" t="s">
+        <v>103</v>
       </c>
       <c r="E11">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="F11">
-        <v>0.422</v>
+        <v>3.657</v>
       </c>
       <c r="G11">
-        <v>0.657</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>0.591</v>
-      </c>
-      <c r="C12">
-        <v>0.576</v>
-      </c>
-      <c r="D12">
-        <v>0.619</v>
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" t="s">
+        <v>104</v>
       </c>
       <c r="E12">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="F12">
-        <v>1.213</v>
+        <v>1.22</v>
       </c>
       <c r="G12">
-        <v>0.299</v>
+        <v>0.297</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>0.582</v>
-      </c>
-      <c r="C13">
-        <v>0.6</v>
-      </c>
-      <c r="D13">
-        <v>0.605</v>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" t="s">
+        <v>105</v>
       </c>
       <c r="E13">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="F13">
-        <v>0.491</v>
+        <v>0.488</v>
       </c>
       <c r="G13">
-        <v>0.613</v>
+        <v>0.614</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>0.598</v>
-      </c>
-      <c r="C14">
-        <v>0.597</v>
-      </c>
-      <c r="D14">
-        <v>0.611</v>
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" t="s">
+        <v>106</v>
       </c>
       <c r="E14">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="F14">
-        <v>0.1</v>
+        <v>0.098</v>
       </c>
       <c r="G14">
-        <v>0.905</v>
+        <v>0.907</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>0.611</v>
-      </c>
-      <c r="C15">
-        <v>0.611</v>
-      </c>
-      <c r="D15">
-        <v>0.627</v>
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" t="s">
+        <v>107</v>
       </c>
       <c r="E15">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="F15">
-        <v>0.144</v>
+        <v>0.159</v>
       </c>
       <c r="G15">
-        <v>0.866</v>
+        <v>0.853</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>0.633</v>
-      </c>
-      <c r="C16">
-        <v>0.613</v>
-      </c>
-      <c r="D16">
-        <v>0.637</v>
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" t="s">
+        <v>108</v>
       </c>
       <c r="E16">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="F16">
-        <v>0.506</v>
+        <v>0.528</v>
       </c>
       <c r="G16">
-        <v>0.604</v>
+        <v>0.59</v>
       </c>
     </row>
   </sheetData>
@@ -2659,390 +4837,390 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>52.568</v>
-      </c>
-      <c r="C2">
-        <v>55.058</v>
-      </c>
-      <c r="D2">
-        <v>56.48</v>
-      </c>
-      <c r="E2">
-        <v>69.75</v>
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" t="s">
+        <v>153</v>
       </c>
       <c r="F2">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="G2">
-        <v>2.305</v>
+        <v>3.554</v>
       </c>
       <c r="H2">
-        <v>0.077</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>51.183</v>
-      </c>
-      <c r="C3">
-        <v>54.565</v>
-      </c>
-      <c r="D3">
-        <v>57.319</v>
-      </c>
-      <c r="E3">
-        <v>81</v>
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" t="s">
+        <v>154</v>
       </c>
       <c r="F3">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="G3">
-        <v>5.149</v>
+        <v>3.272</v>
       </c>
       <c r="H3">
-        <v>0.002</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>51.797</v>
-      </c>
-      <c r="C4">
-        <v>54.009</v>
-      </c>
-      <c r="D4">
-        <v>57.952</v>
-      </c>
-      <c r="E4">
-        <v>69.333</v>
+      <c r="B4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" t="s">
+        <v>155</v>
       </c>
       <c r="F4">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="G4">
-        <v>2.365</v>
+        <v>1.812</v>
       </c>
       <c r="H4">
-        <v>0.07199999999999999</v>
+        <v>0.145</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>50.698</v>
-      </c>
-      <c r="C5">
-        <v>54.704</v>
-      </c>
-      <c r="D5">
-        <v>56.043</v>
-      </c>
-      <c r="E5">
-        <v>79.333</v>
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" t="s">
+        <v>156</v>
       </c>
       <c r="F5">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="G5">
-        <v>4.196</v>
+        <v>3.281</v>
       </c>
       <c r="H5">
-        <v>0.007</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>52.696</v>
-      </c>
-      <c r="C6">
-        <v>54.72</v>
-      </c>
-      <c r="D6">
-        <v>54.261</v>
-      </c>
-      <c r="E6">
-        <v>72</v>
+      <c r="B6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" t="s">
+        <v>157</v>
       </c>
       <c r="F6">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="G6">
-        <v>1.653</v>
+        <v>2.585</v>
       </c>
       <c r="H6">
-        <v>0.179</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>9.851000000000001</v>
-      </c>
-      <c r="C7">
-        <v>8.727</v>
-      </c>
-      <c r="D7">
-        <v>8.32</v>
-      </c>
-      <c r="E7">
-        <v>4.75</v>
+      <c r="B7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" t="s">
+        <v>158</v>
       </c>
       <c r="F7">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="G7">
-        <v>2.226</v>
+        <v>3.513</v>
       </c>
       <c r="H7">
-        <v>0.08599999999999999</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>10.141</v>
-      </c>
-      <c r="C8">
-        <v>8.944000000000001</v>
-      </c>
-      <c r="D8">
-        <v>7.745</v>
-      </c>
-      <c r="E8">
-        <v>2.667</v>
+      <c r="B8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" t="s">
+        <v>159</v>
       </c>
       <c r="F8">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="G8">
-        <v>3.518</v>
+        <v>2.17</v>
       </c>
       <c r="H8">
-        <v>0.016</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>9.797000000000001</v>
-      </c>
-      <c r="C9">
-        <v>9.047000000000001</v>
-      </c>
-      <c r="D9">
-        <v>7.571</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
+      <c r="B9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E9" t="s">
+        <v>160</v>
       </c>
       <c r="F9">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="G9">
-        <v>2.286</v>
+        <v>1.727</v>
       </c>
       <c r="H9">
-        <v>0.08</v>
+        <v>0.162</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>10.175</v>
-      </c>
-      <c r="C10">
-        <v>8.305999999999999</v>
-      </c>
-      <c r="D10">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="E10">
-        <v>2.667</v>
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" t="s">
+        <v>159</v>
       </c>
       <c r="F10">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="G10">
-        <v>3.165</v>
+        <v>2.651</v>
       </c>
       <c r="H10">
-        <v>0.026</v>
+        <v>0.049</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>9.125</v>
-      </c>
-      <c r="C11">
-        <v>8.183</v>
-      </c>
-      <c r="D11">
-        <v>8.673999999999999</v>
-      </c>
-      <c r="E11">
-        <v>2.667</v>
+      <c r="B11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" t="s">
+        <v>159</v>
       </c>
       <c r="F11">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="G11">
-        <v>1.64</v>
+        <v>2.451</v>
       </c>
       <c r="H11">
-        <v>0.182</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>0.598</v>
-      </c>
-      <c r="C12">
-        <v>0.571</v>
-      </c>
-      <c r="D12">
-        <v>0.6</v>
-      </c>
-      <c r="E12">
-        <v>0.701</v>
+      <c r="B12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" t="s">
+        <v>161</v>
       </c>
       <c r="F12">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="G12">
-        <v>1.529</v>
+        <v>1.698</v>
       </c>
       <c r="H12">
-        <v>0.208</v>
+        <v>0.168</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>0.583</v>
-      </c>
-      <c r="C13">
-        <v>0.591</v>
-      </c>
-      <c r="D13">
-        <v>0.613</v>
-      </c>
-      <c r="E13">
-        <v>0.654</v>
+      <c r="B13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" t="s">
+        <v>162</v>
       </c>
       <c r="F13">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="G13">
-        <v>0.594</v>
+        <v>0.598</v>
       </c>
       <c r="H13">
-        <v>0.619</v>
+        <v>0.617</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>0.593</v>
-      </c>
-      <c r="C14">
-        <v>0.597</v>
-      </c>
-      <c r="D14">
-        <v>0.617</v>
-      </c>
-      <c r="E14">
-        <v>0.586</v>
+      <c r="B14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" t="s">
+        <v>163</v>
       </c>
       <c r="F14">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="G14">
-        <v>0.242</v>
+        <v>0.238</v>
       </c>
       <c r="H14">
-        <v>0.867</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>0.604</v>
-      </c>
-      <c r="C15">
-        <v>0.618</v>
-      </c>
-      <c r="D15">
-        <v>0.611</v>
-      </c>
-      <c r="E15">
-        <v>0.7</v>
+      <c r="B15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" t="s">
+        <v>164</v>
       </c>
       <c r="F15">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="G15">
-        <v>0.447</v>
+        <v>0.465</v>
       </c>
       <c r="H15">
-        <v>0.72</v>
+        <v>0.707</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>0.628</v>
-      </c>
-      <c r="C16">
-        <v>0.623</v>
-      </c>
-      <c r="D16">
-        <v>0.616</v>
-      </c>
-      <c r="E16">
-        <v>0.717</v>
+      <c r="B16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" t="s">
+        <v>152</v>
+      </c>
+      <c r="E16" t="s">
+        <v>165</v>
       </c>
       <c r="F16">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="G16">
-        <v>0.43</v>
+        <v>0.486</v>
       </c>
       <c r="H16">
-        <v>0.732</v>
+        <v>0.6919999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3088,390 +5266,390 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>53.607</v>
-      </c>
-      <c r="C2">
-        <v>53.884</v>
-      </c>
-      <c r="D2">
-        <v>57.516</v>
-      </c>
-      <c r="E2">
-        <v>56.5</v>
+      <c r="B2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" t="s">
+        <v>210</v>
       </c>
       <c r="F2">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="G2">
-        <v>1.088</v>
+        <v>1.887</v>
       </c>
       <c r="H2">
-        <v>0.355</v>
+        <v>0.132</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>51.75</v>
-      </c>
-      <c r="C3">
-        <v>53.642</v>
-      </c>
-      <c r="D3">
-        <v>56.841</v>
-      </c>
-      <c r="E3">
-        <v>69</v>
+      <c r="B3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E3" t="s">
+        <v>211</v>
       </c>
       <c r="F3">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="G3">
-        <v>2.867</v>
+        <v>2.717</v>
       </c>
       <c r="H3">
-        <v>0.037</v>
+        <v>0.045</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>53.711</v>
-      </c>
-      <c r="C4">
-        <v>53.037</v>
-      </c>
-      <c r="D4">
-        <v>56.842</v>
-      </c>
-      <c r="E4">
-        <v>58.5</v>
+      <c r="B4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4" t="s">
+        <v>212</v>
       </c>
       <c r="F4">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="G4">
-        <v>0.931</v>
+        <v>1.884</v>
       </c>
       <c r="H4">
-        <v>0.426</v>
+        <v>0.132</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>51.574</v>
-      </c>
-      <c r="C5">
-        <v>54.155</v>
-      </c>
-      <c r="D5">
-        <v>55.467</v>
-      </c>
-      <c r="E5">
-        <v>61</v>
+      <c r="B5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E5" t="s">
+        <v>213</v>
       </c>
       <c r="F5">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="G5">
-        <v>0.982</v>
+        <v>2.463</v>
       </c>
       <c r="H5">
-        <v>0.402</v>
+        <v>0.063</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>52.565</v>
-      </c>
-      <c r="C6">
-        <v>55.146</v>
-      </c>
-      <c r="D6">
-        <v>53.842</v>
-      </c>
-      <c r="E6">
-        <v>59.5</v>
+      <c r="B6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E6" t="s">
+        <v>214</v>
       </c>
       <c r="F6">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="G6">
-        <v>0.556</v>
+        <v>1.257</v>
       </c>
       <c r="H6">
-        <v>0.645</v>
+        <v>0.289</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>9.804</v>
-      </c>
-      <c r="C7">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="D7">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>9.5</v>
+      <c r="B7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E7" t="s">
+        <v>215</v>
       </c>
       <c r="F7">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="G7">
-        <v>1.421</v>
+        <v>2.429</v>
       </c>
       <c r="H7">
-        <v>0.237</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>9.981</v>
-      </c>
-      <c r="C8">
-        <v>9.183</v>
-      </c>
-      <c r="D8">
-        <v>8.111000000000001</v>
-      </c>
-      <c r="E8">
-        <v>5.4</v>
+      <c r="B8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8" t="s">
+        <v>216</v>
       </c>
       <c r="F8">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="G8">
-        <v>2.022</v>
+        <v>2.562</v>
       </c>
       <c r="H8">
-        <v>0.112</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>9.178000000000001</v>
-      </c>
-      <c r="C9">
-        <v>9.295999999999999</v>
-      </c>
-      <c r="D9">
-        <v>8.122999999999999</v>
-      </c>
-      <c r="E9">
-        <v>7.5</v>
+      <c r="B9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E9" t="s">
+        <v>217</v>
       </c>
       <c r="F9">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="G9">
-        <v>0.745</v>
+        <v>1.873</v>
       </c>
       <c r="H9">
-        <v>0.526</v>
+        <v>0.134</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>10.255</v>
-      </c>
-      <c r="C10">
-        <v>8.484999999999999</v>
-      </c>
-      <c r="D10">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="E10">
-        <v>7.5</v>
+      <c r="B10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E10" t="s">
+        <v>217</v>
       </c>
       <c r="F10">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="G10">
-        <v>1.573</v>
+        <v>2.878</v>
       </c>
       <c r="H10">
-        <v>0.197</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>9.087</v>
-      </c>
-      <c r="C11">
-        <v>8.09</v>
-      </c>
-      <c r="D11">
-        <v>8.807</v>
-      </c>
-      <c r="E11">
-        <v>6.5</v>
+      <c r="B11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D11" t="s">
+        <v>204</v>
+      </c>
+      <c r="E11" t="s">
+        <v>218</v>
       </c>
       <c r="F11">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="G11">
-        <v>0.722</v>
+        <v>1.16</v>
       </c>
       <c r="H11">
-        <v>0.54</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>0.603</v>
-      </c>
-      <c r="C12">
-        <v>0.573</v>
-      </c>
-      <c r="D12">
-        <v>0.595</v>
-      </c>
-      <c r="E12">
-        <v>0.619</v>
+      <c r="B12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E12" t="s">
+        <v>219</v>
       </c>
       <c r="F12">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="G12">
-        <v>0.748</v>
+        <v>0.764</v>
       </c>
       <c r="H12">
-        <v>0.525</v>
+        <v>0.515</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>0.58</v>
-      </c>
-      <c r="C13">
-        <v>0.593</v>
-      </c>
-      <c r="D13">
-        <v>0.603</v>
-      </c>
-      <c r="E13">
-        <v>0.643</v>
+      <c r="B13" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D13" t="s">
+        <v>206</v>
+      </c>
+      <c r="E13" t="s">
+        <v>220</v>
       </c>
       <c r="F13">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="G13">
-        <v>0.425</v>
+        <v>0.384</v>
       </c>
       <c r="H13">
-        <v>0.735</v>
+        <v>0.765</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>0.6</v>
-      </c>
-      <c r="C14">
-        <v>0.594</v>
-      </c>
-      <c r="D14">
-        <v>0.613</v>
-      </c>
-      <c r="E14">
-        <v>0.5620000000000001</v>
+      <c r="B14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" t="s">
+        <v>192</v>
+      </c>
+      <c r="D14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E14" t="s">
+        <v>221</v>
       </c>
       <c r="F14">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="G14">
-        <v>0.335</v>
+        <v>0.352</v>
       </c>
       <c r="H14">
-        <v>0.8</v>
+        <v>0.788</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>0.597</v>
-      </c>
-      <c r="C15">
-        <v>0.621</v>
-      </c>
-      <c r="D15">
-        <v>0.612</v>
-      </c>
-      <c r="E15">
-        <v>0.637</v>
+      <c r="B15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" t="s">
+        <v>193</v>
+      </c>
+      <c r="D15" t="s">
+        <v>208</v>
+      </c>
+      <c r="E15" t="s">
+        <v>222</v>
       </c>
       <c r="F15">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="G15">
-        <v>0.327</v>
+        <v>0.312</v>
       </c>
       <c r="H15">
-        <v>0.806</v>
+        <v>0.8169999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>0.635</v>
-      </c>
-      <c r="C16">
-        <v>0.625</v>
-      </c>
-      <c r="D16">
-        <v>0.615</v>
-      </c>
-      <c r="E16">
-        <v>0.626</v>
+      <c r="B16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D16" t="s">
+        <v>209</v>
+      </c>
+      <c r="E16" t="s">
+        <v>220</v>
       </c>
       <c r="F16">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="G16">
-        <v>0.135</v>
+        <v>0.14</v>
       </c>
       <c r="H16">
-        <v>0.9389999999999999</v>
+        <v>0.9360000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -3517,390 +5695,390 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>52.747</v>
-      </c>
-      <c r="C2">
-        <v>54.508</v>
-      </c>
-      <c r="D2">
-        <v>61</v>
-      </c>
-      <c r="E2">
-        <v>55.5</v>
+      <c r="B2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E2" t="s">
+        <v>268</v>
       </c>
       <c r="F2">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="G2">
-        <v>2.897</v>
+        <v>2.524</v>
       </c>
       <c r="H2">
-        <v>0.036</v>
+        <v>0.058</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>52.089</v>
-      </c>
-      <c r="C3">
-        <v>54.807</v>
-      </c>
-      <c r="D3">
-        <v>58.529</v>
-      </c>
-      <c r="E3">
-        <v>55.5</v>
+      <c r="B3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E3" t="s">
+        <v>269</v>
       </c>
       <c r="F3">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="G3">
-        <v>1.543</v>
+        <v>1.625</v>
       </c>
       <c r="H3">
-        <v>0.204</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>52.908</v>
-      </c>
-      <c r="C4">
-        <v>53.036</v>
-      </c>
-      <c r="D4">
-        <v>62.034</v>
-      </c>
-      <c r="E4">
-        <v>82</v>
+      <c r="B4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E4" t="s">
+        <v>270</v>
       </c>
       <c r="F4">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="G4">
-        <v>4.154</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="H4">
-        <v>0.007</v>
+        <v>0.491</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>52.522</v>
-      </c>
-      <c r="C5">
-        <v>53.43</v>
-      </c>
-      <c r="D5">
-        <v>59.242</v>
-      </c>
-      <c r="E5">
-        <v>75</v>
+      <c r="B5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E5" t="s">
+        <v>271</v>
       </c>
       <c r="F5">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="G5">
-        <v>2.191</v>
+        <v>2.409</v>
       </c>
       <c r="H5">
-        <v>0.09</v>
+        <v>0.067</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>53.063</v>
-      </c>
-      <c r="C6">
-        <v>52.883</v>
-      </c>
-      <c r="D6">
-        <v>61.065</v>
-      </c>
-      <c r="E6">
-        <v>69</v>
+      <c r="B6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D6" t="s">
+        <v>257</v>
+      </c>
+      <c r="E6" t="s">
+        <v>272</v>
       </c>
       <c r="F6">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="G6">
-        <v>2.968</v>
+        <v>2.932</v>
       </c>
       <c r="H6">
-        <v>0.033</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>9.678000000000001</v>
-      </c>
-      <c r="C7">
-        <v>9.073</v>
-      </c>
-      <c r="D7">
-        <v>6.472</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
+      <c r="B7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D7" t="s">
+        <v>258</v>
+      </c>
+      <c r="E7" t="s">
+        <v>273</v>
       </c>
       <c r="F7">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="G7">
-        <v>3.938</v>
+        <v>3.079</v>
       </c>
       <c r="H7">
-        <v>0.008999999999999999</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>9.936999999999999</v>
-      </c>
-      <c r="C8">
-        <v>8.851000000000001</v>
-      </c>
-      <c r="D8">
-        <v>7.382</v>
-      </c>
-      <c r="E8">
-        <v>6.5</v>
+      <c r="B8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D8" t="s">
+        <v>259</v>
+      </c>
+      <c r="E8" t="s">
+        <v>274</v>
       </c>
       <c r="F8">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="G8">
-        <v>2.085</v>
+        <v>1.73</v>
       </c>
       <c r="H8">
-        <v>0.103</v>
+        <v>0.161</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>9.513</v>
-      </c>
-      <c r="C9">
-        <v>9.218</v>
-      </c>
-      <c r="D9">
-        <v>6.414</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
+      <c r="B9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C9" t="s">
+        <v>245</v>
+      </c>
+      <c r="D9" t="s">
+        <v>260</v>
+      </c>
+      <c r="E9" t="s">
+        <v>275</v>
       </c>
       <c r="F9">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="G9">
-        <v>3.081</v>
+        <v>0.784</v>
       </c>
       <c r="H9">
-        <v>0.028</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>9.333</v>
-      </c>
-      <c r="C10">
-        <v>8.935</v>
-      </c>
-      <c r="D10">
-        <v>7.455</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
+      <c r="B10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C10" t="s">
+        <v>246</v>
+      </c>
+      <c r="D10" t="s">
+        <v>261</v>
+      </c>
+      <c r="E10" t="s">
+        <v>275</v>
       </c>
       <c r="F10">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="G10">
-        <v>1.491</v>
+        <v>1.988</v>
       </c>
       <c r="H10">
-        <v>0.218</v>
+        <v>0.116</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>8.840999999999999</v>
-      </c>
-      <c r="C11">
-        <v>8.913</v>
-      </c>
-      <c r="D11">
-        <v>6.419</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
+      <c r="B11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D11" t="s">
+        <v>262</v>
+      </c>
+      <c r="E11" t="s">
+        <v>276</v>
       </c>
       <c r="F11">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="G11">
-        <v>2.1</v>
+        <v>2.583</v>
       </c>
       <c r="H11">
-        <v>0.102</v>
+        <v>0.054</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>0.583</v>
-      </c>
-      <c r="C12">
-        <v>0.583</v>
-      </c>
-      <c r="D12">
-        <v>0.611</v>
-      </c>
-      <c r="E12">
-        <v>0.63</v>
+      <c r="B12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D12" t="s">
+        <v>263</v>
+      </c>
+      <c r="E12" t="s">
+        <v>277</v>
       </c>
       <c r="F12">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="G12">
-        <v>0.427</v>
+        <v>0.424</v>
       </c>
       <c r="H12">
-        <v>0.734</v>
+        <v>0.736</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>0.594</v>
-      </c>
-      <c r="C13">
-        <v>0.577</v>
-      </c>
-      <c r="D13">
-        <v>0.643</v>
-      </c>
-      <c r="E13">
-        <v>0.654</v>
+      <c r="B13" t="s">
+        <v>234</v>
+      </c>
+      <c r="C13" t="s">
+        <v>249</v>
+      </c>
+      <c r="D13" t="s">
+        <v>264</v>
+      </c>
+      <c r="E13" t="s">
+        <v>278</v>
       </c>
       <c r="F13">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="G13">
-        <v>1.905</v>
+        <v>1.96</v>
       </c>
       <c r="H13">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>0.602</v>
-      </c>
-      <c r="C14">
-        <v>0.588</v>
-      </c>
-      <c r="D14">
-        <v>0.639</v>
-      </c>
-      <c r="E14">
-        <v>0.521</v>
+      <c r="B14" t="s">
+        <v>235</v>
+      </c>
+      <c r="C14" t="s">
+        <v>250</v>
+      </c>
+      <c r="D14" t="s">
+        <v>265</v>
+      </c>
+      <c r="E14" t="s">
+        <v>279</v>
       </c>
       <c r="F14">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="G14">
-        <v>0.972</v>
+        <v>0.899</v>
       </c>
       <c r="H14">
-        <v>0.407</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>0.616</v>
-      </c>
-      <c r="C15">
-        <v>0.602</v>
-      </c>
-      <c r="D15">
-        <v>0.648</v>
-      </c>
-      <c r="E15">
-        <v>0.514</v>
+      <c r="B15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" t="s">
+        <v>251</v>
+      </c>
+      <c r="D15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E15" t="s">
+        <v>280</v>
       </c>
       <c r="F15">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="G15">
-        <v>0.9330000000000001</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="H15">
-        <v>0.426</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>0.627</v>
-      </c>
-      <c r="C16">
-        <v>0.607</v>
-      </c>
-      <c r="D16">
-        <v>0.677</v>
-      </c>
-      <c r="E16">
-        <v>0.539</v>
+      <c r="B16" t="s">
+        <v>237</v>
+      </c>
+      <c r="C16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D16" t="s">
+        <v>267</v>
+      </c>
+      <c r="E16" t="s">
+        <v>281</v>
       </c>
       <c r="F16">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="G16">
-        <v>1.809</v>
+        <v>1.918</v>
       </c>
       <c r="H16">
-        <v>0.147</v>
+        <v>0.127</v>
       </c>
     </row>
   </sheetData>
@@ -3946,390 +6124,390 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>52.095</v>
-      </c>
-      <c r="C2">
-        <v>54.38</v>
-      </c>
-      <c r="D2">
-        <v>58.393</v>
-      </c>
-      <c r="E2">
-        <v>57.75</v>
+      <c r="B2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E2" t="s">
+        <v>326</v>
       </c>
       <c r="F2">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="G2">
-        <v>2.126</v>
+        <v>2.684</v>
       </c>
       <c r="H2">
-        <v>0.098</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>51.579</v>
-      </c>
-      <c r="C3">
-        <v>54.08</v>
-      </c>
-      <c r="D3">
-        <v>58.222</v>
-      </c>
-      <c r="E3">
-        <v>53.8</v>
+      <c r="B3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E3" t="s">
+        <v>327</v>
       </c>
       <c r="F3">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="G3">
-        <v>1.903</v>
+        <v>1.863</v>
       </c>
       <c r="H3">
-        <v>0.13</v>
+        <v>0.136</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>52.509</v>
-      </c>
-      <c r="C4">
-        <v>52.611</v>
-      </c>
-      <c r="D4">
-        <v>58.824</v>
-      </c>
-      <c r="E4">
-        <v>83</v>
+      <c r="B4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D4" t="s">
+        <v>313</v>
+      </c>
+      <c r="E4" t="s">
+        <v>328</v>
       </c>
       <c r="F4">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="G4">
-        <v>4.703</v>
+        <v>1.172</v>
       </c>
       <c r="H4">
-        <v>0.003</v>
+        <v>0.321</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>51.679</v>
-      </c>
-      <c r="C5">
-        <v>53.624</v>
-      </c>
-      <c r="D5">
-        <v>57.5</v>
-      </c>
-      <c r="E5">
-        <v>56.5</v>
+      <c r="B5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D5" t="s">
+        <v>314</v>
+      </c>
+      <c r="E5" t="s">
+        <v>329</v>
       </c>
       <c r="F5">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="G5">
-        <v>1.355</v>
+        <v>1.444</v>
       </c>
       <c r="H5">
-        <v>0.258</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>54.13</v>
-      </c>
-      <c r="C6">
-        <v>53.237</v>
-      </c>
-      <c r="D6">
-        <v>55.882</v>
-      </c>
-      <c r="E6">
-        <v>62</v>
+      <c r="B6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D6" t="s">
+        <v>315</v>
+      </c>
+      <c r="E6" t="s">
+        <v>330</v>
       </c>
       <c r="F6">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="G6">
-        <v>0.704</v>
+        <v>1.424</v>
       </c>
       <c r="H6">
-        <v>0.55</v>
+        <v>0.236</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>10.127</v>
-      </c>
-      <c r="C7">
-        <v>9.074</v>
-      </c>
-      <c r="D7">
-        <v>7.393</v>
-      </c>
-      <c r="E7">
-        <v>8.25</v>
+      <c r="B7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C7" t="s">
+        <v>301</v>
+      </c>
+      <c r="D7" t="s">
+        <v>316</v>
+      </c>
+      <c r="E7" t="s">
+        <v>331</v>
       </c>
       <c r="F7">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="G7">
-        <v>3.449</v>
+        <v>3.794</v>
       </c>
       <c r="H7">
-        <v>0.017</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>10.14</v>
-      </c>
-      <c r="C8">
-        <v>9.159000000000001</v>
-      </c>
-      <c r="D8">
-        <v>7.426</v>
-      </c>
-      <c r="E8">
-        <v>8.800000000000001</v>
+      <c r="B8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C8" t="s">
+        <v>302</v>
+      </c>
+      <c r="D8" t="s">
+        <v>317</v>
+      </c>
+      <c r="E8" t="s">
+        <v>332</v>
       </c>
       <c r="F8">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="G8">
-        <v>2.553</v>
+        <v>2.112</v>
       </c>
       <c r="H8">
-        <v>0.056</v>
+        <v>0.099</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>9.673</v>
-      </c>
-      <c r="C9">
-        <v>9.426</v>
-      </c>
-      <c r="D9">
-        <v>7.294</v>
-      </c>
-      <c r="E9">
-        <v>1.5</v>
+      <c r="B9" t="s">
+        <v>289</v>
+      </c>
+      <c r="C9" t="s">
+        <v>303</v>
+      </c>
+      <c r="D9" t="s">
+        <v>318</v>
+      </c>
+      <c r="E9" t="s">
+        <v>333</v>
       </c>
       <c r="F9">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="G9">
-        <v>3.533</v>
+        <v>1.397</v>
       </c>
       <c r="H9">
-        <v>0.016</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>9.698</v>
-      </c>
-      <c r="C10">
-        <v>8.851000000000001</v>
-      </c>
-      <c r="D10">
-        <v>7.846</v>
-      </c>
-      <c r="E10">
-        <v>8</v>
+      <c r="B10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C10" t="s">
+        <v>304</v>
+      </c>
+      <c r="D10" t="s">
+        <v>319</v>
+      </c>
+      <c r="E10" t="s">
+        <v>334</v>
       </c>
       <c r="F10">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="G10">
-        <v>1.08</v>
+        <v>1.273</v>
       </c>
       <c r="H10">
-        <v>0.359</v>
+        <v>0.284</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>8.348000000000001</v>
-      </c>
-      <c r="C11">
-        <v>9.01</v>
-      </c>
-      <c r="D11">
-        <v>7.706</v>
-      </c>
-      <c r="E11">
-        <v>7</v>
+      <c r="B11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C11" t="s">
+        <v>305</v>
+      </c>
+      <c r="D11" t="s">
+        <v>320</v>
+      </c>
+      <c r="E11" t="s">
+        <v>335</v>
       </c>
       <c r="F11">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="G11">
-        <v>0.8110000000000001</v>
+        <v>1.42</v>
       </c>
       <c r="H11">
-        <v>0.489</v>
+        <v>0.237</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>0.591</v>
-      </c>
-      <c r="C12">
-        <v>0.574</v>
-      </c>
-      <c r="D12">
-        <v>0.607</v>
-      </c>
-      <c r="E12">
-        <v>0.616</v>
+      <c r="B12" t="s">
+        <v>292</v>
+      </c>
+      <c r="C12" t="s">
+        <v>306</v>
+      </c>
+      <c r="D12" t="s">
+        <v>321</v>
+      </c>
+      <c r="E12" t="s">
+        <v>336</v>
       </c>
       <c r="F12">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="G12">
-        <v>0.769</v>
+        <v>0.782</v>
       </c>
       <c r="H12">
-        <v>0.512</v>
+        <v>0.505</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>0.589</v>
-      </c>
-      <c r="C13">
-        <v>0.581</v>
-      </c>
-      <c r="D13">
-        <v>0.623</v>
-      </c>
-      <c r="E13">
-        <v>0.609</v>
+      <c r="B13" t="s">
+        <v>292</v>
+      </c>
+      <c r="C13" t="s">
+        <v>307</v>
+      </c>
+      <c r="D13" t="s">
+        <v>322</v>
+      </c>
+      <c r="E13" t="s">
+        <v>337</v>
       </c>
       <c r="F13">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="G13">
-        <v>1.065</v>
+        <v>1.078</v>
       </c>
       <c r="H13">
-        <v>0.365</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>0.595</v>
-      </c>
-      <c r="C14">
-        <v>0.591</v>
-      </c>
-      <c r="D14">
-        <v>0.621</v>
-      </c>
-      <c r="E14">
-        <v>0.607</v>
+      <c r="B14" t="s">
+        <v>293</v>
+      </c>
+      <c r="C14" t="s">
+        <v>308</v>
+      </c>
+      <c r="D14" t="s">
+        <v>323</v>
+      </c>
+      <c r="E14" t="s">
+        <v>338</v>
       </c>
       <c r="F14">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="G14">
-        <v>0.468</v>
+        <v>0.474</v>
       </c>
       <c r="H14">
-        <v>0.705</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>0.611</v>
-      </c>
-      <c r="C15">
-        <v>0.608</v>
-      </c>
-      <c r="D15">
-        <v>0.63</v>
-      </c>
-      <c r="E15">
-        <v>0.5649999999999999</v>
+      <c r="B15" t="s">
+        <v>294</v>
+      </c>
+      <c r="C15" t="s">
+        <v>309</v>
+      </c>
+      <c r="D15" t="s">
+        <v>324</v>
+      </c>
+      <c r="E15" t="s">
+        <v>339</v>
       </c>
       <c r="F15">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="G15">
-        <v>0.397</v>
+        <v>0.404</v>
       </c>
       <c r="H15">
-        <v>0.755</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>0.634</v>
-      </c>
-      <c r="C16">
-        <v>0.608</v>
-      </c>
-      <c r="D16">
-        <v>0.649</v>
-      </c>
-      <c r="E16">
-        <v>0.576</v>
+      <c r="B16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C16" t="s">
+        <v>310</v>
+      </c>
+      <c r="D16" t="s">
+        <v>325</v>
+      </c>
+      <c r="E16" t="s">
+        <v>340</v>
       </c>
       <c r="F16">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="G16">
-        <v>0.992</v>
+        <v>1.04</v>
       </c>
       <c r="H16">
-        <v>0.398</v>
+        <v>0.375</v>
       </c>
     </row>
   </sheetData>
@@ -4375,390 +6553,390 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>51.061</v>
-      </c>
-      <c r="C2">
-        <v>54.385</v>
-      </c>
-      <c r="D2">
-        <v>56.952</v>
-      </c>
-      <c r="E2">
-        <v>59.417</v>
+      <c r="B2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E2" t="s">
+        <v>386</v>
       </c>
       <c r="F2">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="G2">
-        <v>2.198</v>
+        <v>2.959</v>
       </c>
       <c r="H2">
-        <v>0.089</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>50.023</v>
-      </c>
-      <c r="C3">
-        <v>53.602</v>
-      </c>
-      <c r="D3">
-        <v>57.079</v>
-      </c>
-      <c r="E3">
-        <v>61.091</v>
+      <c r="B3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E3" t="s">
+        <v>387</v>
       </c>
       <c r="F3">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="G3">
-        <v>2.986</v>
+        <v>2.96</v>
       </c>
       <c r="H3">
-        <v>0.032</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>50.475</v>
-      </c>
-      <c r="C4">
-        <v>53.041</v>
-      </c>
-      <c r="D4">
-        <v>56.873</v>
-      </c>
-      <c r="E4">
-        <v>66.75</v>
+      <c r="B4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C4" t="s">
+        <v>358</v>
+      </c>
+      <c r="D4" t="s">
+        <v>373</v>
+      </c>
+      <c r="E4" t="s">
+        <v>388</v>
       </c>
       <c r="F4">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="G4">
-        <v>3.573</v>
+        <v>2.227</v>
       </c>
       <c r="H4">
-        <v>0.015</v>
+        <v>0.08500000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>50.564</v>
-      </c>
-      <c r="C5">
-        <v>53.438</v>
-      </c>
-      <c r="D5">
-        <v>55.562</v>
-      </c>
-      <c r="E5">
-        <v>65.22199999999999</v>
+      <c r="B5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C5" t="s">
+        <v>359</v>
+      </c>
+      <c r="D5" t="s">
+        <v>374</v>
+      </c>
+      <c r="E5" t="s">
+        <v>389</v>
       </c>
       <c r="F5">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="G5">
-        <v>2.587</v>
+        <v>2.329</v>
       </c>
       <c r="H5">
-        <v>0.054</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>53.176</v>
-      </c>
-      <c r="C6">
-        <v>53.741</v>
-      </c>
-      <c r="D6">
-        <v>54.371</v>
-      </c>
-      <c r="E6">
-        <v>63.333</v>
+      <c r="B6" t="s">
+        <v>345</v>
+      </c>
+      <c r="C6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D6" t="s">
+        <v>375</v>
+      </c>
+      <c r="E6" t="s">
+        <v>390</v>
       </c>
       <c r="F6">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="G6">
-        <v>1.2</v>
+        <v>1.855</v>
       </c>
       <c r="H6">
-        <v>0.311</v>
+        <v>0.137</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>10.551</v>
-      </c>
-      <c r="C7">
-        <v>8.981</v>
-      </c>
-      <c r="D7">
-        <v>8.095000000000001</v>
-      </c>
-      <c r="E7">
-        <v>7.417</v>
+      <c r="B7" t="s">
+        <v>346</v>
+      </c>
+      <c r="C7" t="s">
+        <v>361</v>
+      </c>
+      <c r="D7" t="s">
+        <v>376</v>
+      </c>
+      <c r="E7" t="s">
+        <v>391</v>
       </c>
       <c r="F7">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="G7">
-        <v>3.094</v>
+        <v>3.732</v>
       </c>
       <c r="H7">
-        <v>0.028</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>10.682</v>
-      </c>
-      <c r="C8">
-        <v>9.407999999999999</v>
-      </c>
-      <c r="D8">
-        <v>7.684</v>
-      </c>
-      <c r="E8">
-        <v>7.455</v>
+      <c r="B8" t="s">
+        <v>347</v>
+      </c>
+      <c r="C8" t="s">
+        <v>362</v>
+      </c>
+      <c r="D8" t="s">
+        <v>377</v>
+      </c>
+      <c r="E8" t="s">
+        <v>392</v>
       </c>
       <c r="F8">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="G8">
-        <v>3.666</v>
+        <v>3.316</v>
       </c>
       <c r="H8">
-        <v>0.013</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>10.5</v>
-      </c>
-      <c r="C9">
-        <v>9.371</v>
-      </c>
-      <c r="D9">
-        <v>7.718</v>
-      </c>
-      <c r="E9">
-        <v>6</v>
+      <c r="B9" t="s">
+        <v>348</v>
+      </c>
+      <c r="C9" t="s">
+        <v>363</v>
+      </c>
+      <c r="D9" t="s">
+        <v>378</v>
+      </c>
+      <c r="E9" t="s">
+        <v>393</v>
       </c>
       <c r="F9">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="G9">
-        <v>3.369</v>
+        <v>2.829</v>
       </c>
       <c r="H9">
-        <v>0.019</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>10.41</v>
-      </c>
-      <c r="C10">
-        <v>8.753</v>
-      </c>
-      <c r="D10">
-        <v>8.315</v>
-      </c>
-      <c r="E10">
-        <v>6.222</v>
+      <c r="B10" t="s">
+        <v>349</v>
+      </c>
+      <c r="C10" t="s">
+        <v>364</v>
+      </c>
+      <c r="D10" t="s">
+        <v>379</v>
+      </c>
+      <c r="E10" t="s">
+        <v>394</v>
       </c>
       <c r="F10">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="G10">
-        <v>2.103</v>
+        <v>2.584</v>
       </c>
       <c r="H10">
-        <v>0.101</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>8.971</v>
-      </c>
-      <c r="C11">
-        <v>8.659000000000001</v>
-      </c>
-      <c r="D11">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="E11">
-        <v>6.333</v>
+      <c r="B11" t="s">
+        <v>350</v>
+      </c>
+      <c r="C11" t="s">
+        <v>365</v>
+      </c>
+      <c r="D11" t="s">
+        <v>380</v>
+      </c>
+      <c r="E11" t="s">
+        <v>395</v>
       </c>
       <c r="F11">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="G11">
-        <v>0.656</v>
+        <v>1.999</v>
       </c>
       <c r="H11">
-        <v>0.58</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>0.588</v>
-      </c>
-      <c r="C12">
-        <v>0.573</v>
-      </c>
-      <c r="D12">
-        <v>0.594</v>
-      </c>
-      <c r="E12">
-        <v>0.658</v>
+      <c r="B12" t="s">
+        <v>351</v>
+      </c>
+      <c r="C12" t="s">
+        <v>366</v>
+      </c>
+      <c r="D12" t="s">
+        <v>381</v>
+      </c>
+      <c r="E12" t="s">
+        <v>396</v>
       </c>
       <c r="F12">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="G12">
-        <v>1.319</v>
+        <v>1.281</v>
       </c>
       <c r="H12">
-        <v>0.269</v>
+        <v>0.281</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>0.586</v>
-      </c>
-      <c r="C13">
-        <v>0.574</v>
-      </c>
-      <c r="D13">
-        <v>0.618</v>
-      </c>
-      <c r="E13">
-        <v>0.631</v>
+      <c r="B13" t="s">
+        <v>352</v>
+      </c>
+      <c r="C13" t="s">
+        <v>367</v>
+      </c>
+      <c r="D13" t="s">
+        <v>382</v>
+      </c>
+      <c r="E13" t="s">
+        <v>397</v>
       </c>
       <c r="F13">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="G13">
-        <v>1.589</v>
+        <v>1.614</v>
       </c>
       <c r="H13">
-        <v>0.193</v>
+        <v>0.186</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>0.586</v>
-      </c>
-      <c r="C14">
-        <v>0.587</v>
-      </c>
-      <c r="D14">
-        <v>0.621</v>
-      </c>
-      <c r="E14">
-        <v>0.623</v>
+      <c r="B14" t="s">
+        <v>353</v>
+      </c>
+      <c r="C14" t="s">
+        <v>368</v>
+      </c>
+      <c r="D14" t="s">
+        <v>383</v>
+      </c>
+      <c r="E14" t="s">
+        <v>398</v>
       </c>
       <c r="F14">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="G14">
-        <v>0.869</v>
+        <v>0.87</v>
       </c>
       <c r="H14">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>0.599</v>
-      </c>
-      <c r="C15">
-        <v>0.609</v>
-      </c>
-      <c r="D15">
-        <v>0.628</v>
-      </c>
-      <c r="E15">
-        <v>0.604</v>
+      <c r="B15" t="s">
+        <v>354</v>
+      </c>
+      <c r="C15" t="s">
+        <v>369</v>
+      </c>
+      <c r="D15" t="s">
+        <v>384</v>
+      </c>
+      <c r="E15" t="s">
+        <v>399</v>
       </c>
       <c r="F15">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="G15">
-        <v>0.362</v>
+        <v>0.369</v>
       </c>
       <c r="H15">
-        <v>0.781</v>
+        <v>0.775</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>0.624</v>
-      </c>
-      <c r="C16">
-        <v>0.613</v>
-      </c>
-      <c r="D16">
-        <v>0.638</v>
-      </c>
-      <c r="E16">
-        <v>0.622</v>
+      <c r="B16" t="s">
+        <v>355</v>
+      </c>
+      <c r="C16" t="s">
+        <v>370</v>
+      </c>
+      <c r="D16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E16" t="s">
+        <v>400</v>
       </c>
       <c r="F16">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="G16">
-        <v>0.325</v>
+        <v>0.35</v>
       </c>
       <c r="H16">
-        <v>0.8080000000000001</v>
+        <v>0.789</v>
       </c>
     </row>
   </sheetData>
@@ -4804,390 +6982,390 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>52.212</v>
-      </c>
-      <c r="C2">
-        <v>52.66</v>
-      </c>
-      <c r="D2">
-        <v>57.854</v>
-      </c>
-      <c r="E2">
-        <v>56.185</v>
+      <c r="B2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E2" t="s">
+        <v>445</v>
       </c>
       <c r="F2">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="G2">
-        <v>2.556</v>
+        <v>3.098</v>
       </c>
       <c r="H2">
-        <v>0.056</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>50.862</v>
-      </c>
-      <c r="C3">
-        <v>52.315</v>
-      </c>
-      <c r="D3">
-        <v>57.19</v>
-      </c>
-      <c r="E3">
-        <v>57.167</v>
+      <c r="B3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E3" t="s">
+        <v>446</v>
       </c>
       <c r="F3">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="G3">
-        <v>2.442</v>
+        <v>3.271</v>
       </c>
       <c r="H3">
-        <v>0.065</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>53.042</v>
-      </c>
-      <c r="C4">
-        <v>51.87</v>
-      </c>
-      <c r="D4">
-        <v>56.797</v>
-      </c>
-      <c r="E4">
-        <v>57.333</v>
+      <c r="B4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D4" t="s">
+        <v>432</v>
+      </c>
+      <c r="E4" t="s">
+        <v>447</v>
       </c>
       <c r="F4">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="G4">
-        <v>1.805</v>
+        <v>2.472</v>
       </c>
       <c r="H4">
-        <v>0.147</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>51.36</v>
-      </c>
-      <c r="C5">
-        <v>52.4</v>
-      </c>
-      <c r="D5">
-        <v>57.221</v>
-      </c>
-      <c r="E5">
-        <v>53.348</v>
+      <c r="B5" t="s">
+        <v>404</v>
+      </c>
+      <c r="C5" t="s">
+        <v>418</v>
+      </c>
+      <c r="D5" t="s">
+        <v>433</v>
+      </c>
+      <c r="E5" t="s">
+        <v>448</v>
       </c>
       <c r="F5">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="G5">
-        <v>1.701</v>
+        <v>2.593</v>
       </c>
       <c r="H5">
-        <v>0.168</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>52.84</v>
-      </c>
-      <c r="C6">
-        <v>54.303</v>
-      </c>
-      <c r="D6">
-        <v>54.947</v>
-      </c>
-      <c r="E6">
-        <v>53.714</v>
+      <c r="B6" t="s">
+        <v>405</v>
+      </c>
+      <c r="C6" t="s">
+        <v>419</v>
+      </c>
+      <c r="D6" t="s">
+        <v>434</v>
+      </c>
+      <c r="E6" t="s">
+        <v>449</v>
       </c>
       <c r="F6">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="G6">
-        <v>0.136</v>
+        <v>1.381</v>
       </c>
       <c r="H6">
-        <v>0.9389999999999999</v>
+        <v>0.249</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>10.606</v>
-      </c>
-      <c r="C7">
-        <v>9.41</v>
-      </c>
-      <c r="D7">
-        <v>7.787</v>
-      </c>
-      <c r="E7">
-        <v>8.741</v>
+      <c r="B7" t="s">
+        <v>406</v>
+      </c>
+      <c r="C7" t="s">
+        <v>420</v>
+      </c>
+      <c r="D7" t="s">
+        <v>435</v>
+      </c>
+      <c r="E7" t="s">
+        <v>450</v>
       </c>
       <c r="F7">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="G7">
-        <v>3.365</v>
+        <v>3.766</v>
       </c>
       <c r="H7">
-        <v>0.019</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>10.448</v>
-      </c>
-      <c r="C8">
-        <v>9.772</v>
-      </c>
-      <c r="D8">
-        <v>7.893</v>
-      </c>
-      <c r="E8">
-        <v>8.042</v>
+      <c r="B8" t="s">
+        <v>407</v>
+      </c>
+      <c r="C8" t="s">
+        <v>421</v>
+      </c>
+      <c r="D8" t="s">
+        <v>436</v>
+      </c>
+      <c r="E8" t="s">
+        <v>451</v>
       </c>
       <c r="F8">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="G8">
-        <v>2.926</v>
+        <v>3.535</v>
       </c>
       <c r="H8">
-        <v>0.035</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>9.583</v>
-      </c>
-      <c r="C9">
-        <v>9.815</v>
-      </c>
-      <c r="D9">
-        <v>7.835</v>
-      </c>
-      <c r="E9">
-        <v>8.238</v>
+      <c r="B9" t="s">
+        <v>408</v>
+      </c>
+      <c r="C9" t="s">
+        <v>422</v>
+      </c>
+      <c r="D9" t="s">
+        <v>437</v>
+      </c>
+      <c r="E9" t="s">
+        <v>452</v>
       </c>
       <c r="F9">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="G9">
-        <v>2.134</v>
+        <v>2.932</v>
       </c>
       <c r="H9">
-        <v>0.097</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>10.92</v>
-      </c>
-      <c r="C10">
-        <v>9.082000000000001</v>
-      </c>
-      <c r="D10">
-        <v>7.675</v>
-      </c>
-      <c r="E10">
-        <v>9.217000000000001</v>
+      <c r="B10" t="s">
+        <v>409</v>
+      </c>
+      <c r="C10" t="s">
+        <v>423</v>
+      </c>
+      <c r="D10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E10" t="s">
+        <v>453</v>
       </c>
       <c r="F10">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="G10">
-        <v>2.62</v>
+        <v>3.468</v>
       </c>
       <c r="H10">
-        <v>0.052</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="C11">
-        <v>8.487</v>
-      </c>
-      <c r="D11">
-        <v>8.079000000000001</v>
-      </c>
-      <c r="E11">
-        <v>9.048</v>
+      <c r="B11" t="s">
+        <v>410</v>
+      </c>
+      <c r="C11" t="s">
+        <v>424</v>
+      </c>
+      <c r="D11" t="s">
+        <v>439</v>
+      </c>
+      <c r="E11" t="s">
+        <v>454</v>
       </c>
       <c r="F11">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="G11">
-        <v>0.382</v>
+        <v>1.701</v>
       </c>
       <c r="H11">
-        <v>0.766</v>
+        <v>0.167</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>0.579</v>
-      </c>
-      <c r="C12">
-        <v>0.579</v>
-      </c>
-      <c r="D12">
-        <v>0.593</v>
-      </c>
-      <c r="E12">
-        <v>0.608</v>
+      <c r="B12" t="s">
+        <v>411</v>
+      </c>
+      <c r="C12" t="s">
+        <v>425</v>
+      </c>
+      <c r="D12" t="s">
+        <v>440</v>
+      </c>
+      <c r="E12" t="s">
+        <v>455</v>
       </c>
       <c r="F12">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="G12">
-        <v>0.37</v>
+        <v>0.376</v>
       </c>
       <c r="H12">
-        <v>0.775</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>0.574</v>
-      </c>
-      <c r="C13">
-        <v>0.58</v>
-      </c>
-      <c r="D13">
-        <v>0.606</v>
-      </c>
-      <c r="E13">
-        <v>0.626</v>
+      <c r="B13" t="s">
+        <v>411</v>
+      </c>
+      <c r="C13" t="s">
+        <v>426</v>
+      </c>
+      <c r="D13" t="s">
+        <v>441</v>
+      </c>
+      <c r="E13" t="s">
+        <v>456</v>
       </c>
       <c r="F13">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="G13">
-        <v>1.032</v>
+        <v>1.022</v>
       </c>
       <c r="H13">
-        <v>0.379</v>
+        <v>0.383</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>0.588</v>
-      </c>
-      <c r="C14">
-        <v>0.585</v>
-      </c>
-      <c r="D14">
-        <v>0.618</v>
-      </c>
-      <c r="E14">
-        <v>0.603</v>
+      <c r="B14" t="s">
+        <v>412</v>
+      </c>
+      <c r="C14" t="s">
+        <v>427</v>
+      </c>
+      <c r="D14" t="s">
+        <v>442</v>
+      </c>
+      <c r="E14" t="s">
+        <v>457</v>
       </c>
       <c r="F14">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="G14">
-        <v>0.75</v>
+        <v>0.779</v>
       </c>
       <c r="H14">
-        <v>0.523</v>
+        <v>0.507</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>0.572</v>
-      </c>
-      <c r="C15">
-        <v>0.614</v>
-      </c>
-      <c r="D15">
-        <v>0.633</v>
-      </c>
-      <c r="E15">
-        <v>0.589</v>
+      <c r="B15" t="s">
+        <v>413</v>
+      </c>
+      <c r="C15" t="s">
+        <v>428</v>
+      </c>
+      <c r="D15" t="s">
+        <v>443</v>
+      </c>
+      <c r="E15" t="s">
+        <v>458</v>
       </c>
       <c r="F15">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="G15">
-        <v>1.294</v>
+        <v>1.221</v>
       </c>
       <c r="H15">
-        <v>0.278</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>0.601</v>
-      </c>
-      <c r="C16">
-        <v>0.63</v>
-      </c>
-      <c r="D16">
-        <v>0.632</v>
-      </c>
-      <c r="E16">
-        <v>0.604</v>
+      <c r="B16" t="s">
+        <v>414</v>
+      </c>
+      <c r="C16" t="s">
+        <v>429</v>
+      </c>
+      <c r="D16" t="s">
+        <v>444</v>
+      </c>
+      <c r="E16" t="s">
+        <v>459</v>
       </c>
       <c r="F16">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="G16">
-        <v>0.408</v>
+        <v>0.393</v>
       </c>
       <c r="H16">
-        <v>0.747</v>
+        <v>0.758</v>
       </c>
     </row>
   </sheetData>
@@ -5233,390 +7411,390 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>52.417</v>
-      </c>
-      <c r="C2">
-        <v>53.824</v>
-      </c>
-      <c r="D2">
-        <v>60.615</v>
-      </c>
-      <c r="E2">
-        <v>51.167</v>
+      <c r="B2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D2" t="s">
+        <v>490</v>
+      </c>
+      <c r="E2" t="s">
+        <v>505</v>
       </c>
       <c r="F2">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="G2">
-        <v>3.829</v>
+        <v>3.039</v>
       </c>
       <c r="H2">
-        <v>0.01</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>51.056</v>
-      </c>
-      <c r="C3">
-        <v>55.041</v>
-      </c>
-      <c r="D3">
-        <v>56.957</v>
-      </c>
-      <c r="E3">
-        <v>52.5</v>
+      <c r="B3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C3" t="s">
+        <v>476</v>
+      </c>
+      <c r="D3" t="s">
+        <v>491</v>
+      </c>
+      <c r="E3" t="s">
+        <v>506</v>
       </c>
       <c r="F3">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="G3">
-        <v>1.481</v>
+        <v>1.221</v>
       </c>
       <c r="H3">
-        <v>0.22</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>52.235</v>
-      </c>
-      <c r="C4">
-        <v>53.07</v>
-      </c>
-      <c r="D4">
-        <v>59.083</v>
-      </c>
-      <c r="E4">
-        <v>66.5</v>
+      <c r="B4" t="s">
+        <v>462</v>
+      </c>
+      <c r="C4" t="s">
+        <v>477</v>
+      </c>
+      <c r="D4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E4" t="s">
+        <v>507</v>
       </c>
       <c r="F4">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="G4">
-        <v>2.572</v>
+        <v>2.934</v>
       </c>
       <c r="H4">
-        <v>0.055</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>51.426</v>
-      </c>
-      <c r="C5">
-        <v>54.073</v>
-      </c>
-      <c r="D5">
-        <v>57.28</v>
-      </c>
-      <c r="E5">
-        <v>49</v>
+      <c r="B5" t="s">
+        <v>463</v>
+      </c>
+      <c r="C5" t="s">
+        <v>478</v>
+      </c>
+      <c r="D5" t="s">
+        <v>493</v>
+      </c>
+      <c r="E5" t="s">
+        <v>508</v>
       </c>
       <c r="F5">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="G5">
-        <v>1.338</v>
+        <v>3.382</v>
       </c>
       <c r="H5">
-        <v>0.263</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>51.386</v>
-      </c>
-      <c r="C6">
-        <v>52.529</v>
-      </c>
-      <c r="D6">
-        <v>61.191</v>
-      </c>
-      <c r="E6">
-        <v>50.667</v>
+      <c r="B6" t="s">
+        <v>464</v>
+      </c>
+      <c r="C6" t="s">
+        <v>479</v>
+      </c>
+      <c r="D6" t="s">
+        <v>494</v>
+      </c>
+      <c r="E6" t="s">
+        <v>509</v>
       </c>
       <c r="F6">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="G6">
-        <v>4.667</v>
+        <v>5.833</v>
       </c>
       <c r="H6">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>9.817</v>
-      </c>
-      <c r="C7">
-        <v>9.343999999999999</v>
-      </c>
-      <c r="D7">
-        <v>6.712</v>
-      </c>
-      <c r="E7">
-        <v>9.667</v>
+      <c r="B7" t="s">
+        <v>465</v>
+      </c>
+      <c r="C7" t="s">
+        <v>480</v>
+      </c>
+      <c r="D7" t="s">
+        <v>495</v>
+      </c>
+      <c r="E7" t="s">
+        <v>510</v>
       </c>
       <c r="F7">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="G7">
-        <v>4.828</v>
+        <v>3.379</v>
       </c>
       <c r="H7">
-        <v>0.003</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>10.056</v>
-      </c>
-      <c r="C8">
-        <v>9.007999999999999</v>
-      </c>
-      <c r="D8">
-        <v>7.851</v>
-      </c>
-      <c r="E8">
-        <v>7.833</v>
+      <c r="B8" t="s">
+        <v>466</v>
+      </c>
+      <c r="C8" t="s">
+        <v>481</v>
+      </c>
+      <c r="D8" t="s">
+        <v>496</v>
+      </c>
+      <c r="E8" t="s">
+        <v>511</v>
       </c>
       <c r="F8">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="G8">
-        <v>1.558</v>
+        <v>1.23</v>
       </c>
       <c r="H8">
-        <v>0.201</v>
+        <v>0.299</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>9.843</v>
-      </c>
-      <c r="C9">
-        <v>9.130000000000001</v>
-      </c>
-      <c r="D9">
-        <v>7.625</v>
-      </c>
-      <c r="E9">
-        <v>3.5</v>
+      <c r="B9" t="s">
+        <v>467</v>
+      </c>
+      <c r="C9" t="s">
+        <v>482</v>
+      </c>
+      <c r="D9" t="s">
+        <v>497</v>
+      </c>
+      <c r="E9" t="s">
+        <v>512</v>
       </c>
       <c r="F9">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="G9">
-        <v>2.143</v>
+        <v>2.383</v>
       </c>
       <c r="H9">
-        <v>0.096</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>9.787000000000001</v>
-      </c>
-      <c r="C10">
-        <v>8.632999999999999</v>
-      </c>
-      <c r="D10">
-        <v>8.1</v>
-      </c>
-      <c r="E10">
-        <v>10.5</v>
+      <c r="B10" t="s">
+        <v>468</v>
+      </c>
+      <c r="C10" t="s">
+        <v>483</v>
+      </c>
+      <c r="D10" t="s">
+        <v>498</v>
+      </c>
+      <c r="E10" t="s">
+        <v>513</v>
       </c>
       <c r="F10">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="G10">
-        <v>0.986</v>
+        <v>2.808</v>
       </c>
       <c r="H10">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>9.5</v>
-      </c>
-      <c r="C11">
-        <v>9.01</v>
-      </c>
-      <c r="D11">
-        <v>6.34</v>
-      </c>
-      <c r="E11">
-        <v>8.667</v>
+      <c r="B11" t="s">
+        <v>469</v>
+      </c>
+      <c r="C11" t="s">
+        <v>484</v>
+      </c>
+      <c r="D11" t="s">
+        <v>499</v>
+      </c>
+      <c r="E11" t="s">
+        <v>514</v>
       </c>
       <c r="F11">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="G11">
-        <v>3.642</v>
+        <v>4.984</v>
       </c>
       <c r="H11">
-        <v>0.014</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>0.5659999999999999</v>
-      </c>
-      <c r="C12">
-        <v>0.589</v>
-      </c>
-      <c r="D12">
-        <v>0.61</v>
-      </c>
-      <c r="E12">
-        <v>0.5580000000000001</v>
+      <c r="B12" t="s">
+        <v>470</v>
+      </c>
+      <c r="C12" t="s">
+        <v>485</v>
+      </c>
+      <c r="D12" t="s">
+        <v>500</v>
+      </c>
+      <c r="E12" t="s">
+        <v>515</v>
       </c>
       <c r="F12">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="G12">
-        <v>0.928</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="H12">
-        <v>0.428</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>0.584</v>
-      </c>
-      <c r="C13">
-        <v>0.585</v>
-      </c>
-      <c r="D13">
-        <v>0.625</v>
-      </c>
-      <c r="E13">
-        <v>0.618</v>
+      <c r="B13" t="s">
+        <v>471</v>
+      </c>
+      <c r="C13" t="s">
+        <v>486</v>
+      </c>
+      <c r="D13" t="s">
+        <v>501</v>
+      </c>
+      <c r="E13" t="s">
+        <v>516</v>
       </c>
       <c r="F13">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>1.008</v>
       </c>
       <c r="H13">
-        <v>0.394</v>
+        <v>0.389</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>0.592</v>
-      </c>
-      <c r="C14">
-        <v>0.597</v>
-      </c>
-      <c r="D14">
-        <v>0.614</v>
-      </c>
-      <c r="E14">
-        <v>0.584</v>
+      <c r="B14" t="s">
+        <v>472</v>
+      </c>
+      <c r="C14" t="s">
+        <v>487</v>
+      </c>
+      <c r="D14" t="s">
+        <v>502</v>
+      </c>
+      <c r="E14" t="s">
+        <v>517</v>
       </c>
       <c r="F14">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="G14">
-        <v>0.21</v>
+        <v>0.219</v>
       </c>
       <c r="H14">
-        <v>0.889</v>
+        <v>0.883</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>0.591</v>
-      </c>
-      <c r="C15">
-        <v>0.623</v>
-      </c>
-      <c r="D15">
-        <v>0.614</v>
-      </c>
-      <c r="E15">
-        <v>0.592</v>
+      <c r="B15" t="s">
+        <v>473</v>
+      </c>
+      <c r="C15" t="s">
+        <v>488</v>
+      </c>
+      <c r="D15" t="s">
+        <v>503</v>
+      </c>
+      <c r="E15" t="s">
+        <v>518</v>
       </c>
       <c r="F15">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="G15">
-        <v>0.528</v>
+        <v>0.494</v>
       </c>
       <c r="H15">
-        <v>0.663</v>
+        <v>0.6870000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>0.609</v>
-      </c>
-      <c r="C16">
-        <v>0.622</v>
-      </c>
-      <c r="D16">
-        <v>0.644</v>
-      </c>
-      <c r="E16">
-        <v>0.615</v>
+      <c r="B16" t="s">
+        <v>474</v>
+      </c>
+      <c r="C16" t="s">
+        <v>489</v>
+      </c>
+      <c r="D16" t="s">
+        <v>504</v>
+      </c>
+      <c r="E16" t="s">
+        <v>519</v>
       </c>
       <c r="F16">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="G16">
-        <v>0.401</v>
+        <v>0.43</v>
       </c>
       <c r="H16">
-        <v>0.752</v>
+        <v>0.732</v>
       </c>
     </row>
   </sheetData>
